--- a/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
+++ b/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16980" tabRatio="816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16980" tabRatio="816"/>
   </bookViews>
   <sheets>
     <sheet name="Sorting" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>Link</t>
   </si>
@@ -104,13 +104,31 @@
   </si>
   <si>
     <t>Implement Binary search iteraive</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort iterative</t>
+  </si>
+  <si>
+    <t>Radix sort</t>
+  </si>
+  <si>
+    <t>Implement a stack using linked list</t>
+  </si>
+  <si>
+    <t>Implement a stack using Array</t>
+  </si>
+  <si>
+    <t>Can you implement with generics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +154,21 @@
       <sz val="16"/>
       <color rgb="FFE26B0A"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -196,18 +229,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -539,10 +575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -589,55 +625,103 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -798,13 +882,17 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20">
       <c r="A1" s="3" t="s">
@@ -818,6 +906,24 @@
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -942,8 +1048,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A1047715" workbookViewId="0">
+      <selection activeCell="B1048576" sqref="B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -971,16 +1077,25 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -1130,6 +1245,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="65.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20">
       <c r="A1" s="3" t="s">

--- a/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
+++ b/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr dateCompatibility="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ab670958/IdeaProjects/my-coding-practise/src/main/java/com/aneonoir/dsalgo/practise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9B328B-05E0-4F4F-A979-5624012734DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{754B7563-AD9C-DD44-B287-7D45E21BA568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16920" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,9 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="338">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="477" uniqueCount="338">
   <si>
     <t>Link</t>
   </si>
@@ -1079,7 +1082,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1159,19 +1162,19 @@
   </fills>
   <borders count="4">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1181,10 +1184,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1194,10 +1197,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <start/>
+      <end style="thin">
         <color indexed="64"/>
-      </right>
+      </end>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1313,7 +1316,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1432,22 +1435,22 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="50%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="35%">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="37%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="15%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1455,18 +1458,18 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100%"/>
+                <a:shade val="100%"/>
+                <a:satMod val="130%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="50%"/>
+                <a:shade val="100%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1477,8 +1480,8 @@
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:shade val="95%"/>
+              <a:satMod val="105%"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -1501,7 +1504,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="38%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1510,7 +1513,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="35%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1519,7 +1522,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="35%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1542,47 +1545,47 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="40%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="40%">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="45%"/>
+                <a:shade val="99%"/>
+                <a:satMod val="350%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="20%"/>
+                <a:satMod val="255%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect l="50%" t="-80%" r="50%" b="180%"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="80%"/>
+                <a:satMod val="300%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
+                <a:shade val="30%"/>
+                <a:satMod val="200%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1633,7 +1636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D300"/>
   <sheetViews>
@@ -1802,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -2081,7 +2084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -2112,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D200"/>
   <sheetViews>
@@ -2154,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D300"/>
   <sheetViews>
@@ -2196,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D100"/>
   <sheetViews>
@@ -2239,7 +2242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:D300"/>
   <sheetViews>
@@ -2298,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -2335,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -2369,7 +2372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:D500"/>
   <sheetViews>
@@ -2440,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2469,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D200"/>
   <sheetViews>
@@ -2541,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2554,7 +2557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D200"/>
   <sheetViews>
@@ -2680,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D300"/>
   <sheetViews>
@@ -2728,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E200"/>
   <sheetViews>
@@ -2791,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E537"/>
   <sheetViews>
@@ -3164,7 +3167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr transitionEvaluation="1" codeName="Sheet7"/>
   <dimension ref="A1:H159"/>
   <sheetViews>
@@ -3225,9 +3228,9 @@
       <c r="C7" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3237,9 +3240,9 @@
       <c r="C8" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3249,9 +3252,9 @@
       <c r="C9" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3261,9 +3264,9 @@
       <c r="C10" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3281,9 +3284,9 @@
       <c r="C12" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3296,9 +3299,9 @@
       <c r="C13" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="12" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3320,9 +3323,9 @@
       <c r="C15" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3348,9 +3351,9 @@
       <c r="C18" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
       <c r="H18" t="s">
         <v>320</v>
@@ -3363,9 +3366,9 @@
       <c r="C19" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3384,9 +3387,9 @@
       <c r="C21" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3396,9 +3399,9 @@
       <c r="C22" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3418,9 +3421,9 @@
       <c r="C26" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="13" t="d">
         <f ca="1">NOW()</f>
-        <v>44022.5281181713</v>
+        <v>2020-07-10T12:47:58.64999973680824125</v>
       </c>
       <c r="H26" t="s">
         <v>334</v>
@@ -3457,7 +3460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E401"/>
   <sheetViews>
@@ -4088,7 +4091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D100"/>
   <sheetViews>

--- a/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
+++ b/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
@@ -1,37 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ab670958/IdeaProjects/my-coding-practise/src/main/java/com/aneonoir/dsalgo/practise/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCABBF97-D19D-1A4C-A10F-78A9DDA29E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16920" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sorting" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Binary Search" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Dynamic Programming" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Math" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="HashMap" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="String" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="LinkedList" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Tree" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Trie" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Heap" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Two Pointer" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BitWise" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Graph" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Greedy" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Stack" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Queue" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Union Find" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Arrays" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Low Level Design Questions" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="High Level Design Question" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="backtracking" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Sorting" sheetId="1" r:id="rId1"/>
+    <sheet name="Binary Search" sheetId="2" r:id="rId2"/>
+    <sheet name="Dynamic Programming" sheetId="3" r:id="rId3"/>
+    <sheet name="Math" sheetId="4" r:id="rId4"/>
+    <sheet name="HashMap" sheetId="5" r:id="rId5"/>
+    <sheet name="String" sheetId="6" r:id="rId6"/>
+    <sheet name="LinkedList" sheetId="7" r:id="rId7"/>
+    <sheet name="Tree" sheetId="8" r:id="rId8"/>
+    <sheet name="Trie" sheetId="9" r:id="rId9"/>
+    <sheet name="Heap" sheetId="10" r:id="rId10"/>
+    <sheet name="Two Pointer" sheetId="11" r:id="rId11"/>
+    <sheet name="BitWise" sheetId="12" r:id="rId12"/>
+    <sheet name="Graph" sheetId="13" r:id="rId13"/>
+    <sheet name="Greedy" sheetId="14" r:id="rId14"/>
+    <sheet name="Stack" sheetId="15" r:id="rId15"/>
+    <sheet name="Queue" sheetId="16" r:id="rId16"/>
+    <sheet name="Union Find" sheetId="17" r:id="rId17"/>
+    <sheet name="Arrays" sheetId="18" r:id="rId18"/>
+    <sheet name="Low Level Design Questions" sheetId="19" r:id="rId19"/>
+    <sheet name="High Level Design Question" sheetId="20" r:id="rId20"/>
+    <sheet name="backtracking" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -40,51 +53,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="338">
-  <si>
-    <t xml:space="preserve">Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link/Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local File</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="358">
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Link/Reference</t>
+  </si>
+  <si>
+    <t>Local File</t>
   </si>
   <si>
     <t xml:space="preserve">Implement a bubble sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a bubble sort which gives O(n) in the best case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file://localhost/Users/ab670958/Documents/ FORM12BB.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement bubble sort recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Selection Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Selection Sort Recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Selection Sort stable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Selection Sort of A linkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement couting Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement inserttion sort</t>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Implement a bubble sort which gives O(n) in the best case</t>
+  </si>
+  <si>
+    <t>file://localhost/Users/ab670958/Documents/ FORM12BB.pdf</t>
+  </si>
+  <si>
+    <t>Implement bubble sort recursively</t>
+  </si>
+  <si>
+    <t>Implement Selection Sort</t>
+  </si>
+  <si>
+    <t>Implement Selection Sort Recursively</t>
+  </si>
+  <si>
+    <t>Implement Selection Sort stable</t>
+  </si>
+  <si>
+    <t>Implement Selection Sort of A linkedList</t>
+  </si>
+  <si>
+    <t>Implement couting Sort</t>
+  </si>
+  <si>
+    <t>Implement inserttion sort</t>
   </si>
   <si>
     <t xml:space="preserve">Implment quick sort </t>
@@ -93,55 +106,55 @@
     <t xml:space="preserve">Implement Quick sort Stable </t>
   </si>
   <si>
-    <t xml:space="preserve">Implmenent quick sort Method 1 Iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement quick sort method 2 recurioon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radix sort</t>
+    <t>Implmenent quick sort Method 1 Iterative</t>
+  </si>
+  <si>
+    <t>Implement quick sort method 2 recurioon</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort iterative</t>
+  </si>
+  <si>
+    <t>Radix sort</t>
   </si>
   <si>
     <t xml:space="preserve">Do reach here </t>
   </si>
   <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Binary Search Recursion Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Binary Search Iterative Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implmenet binary search LinkedList Recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Binary search iteraive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the log base 2  value of a number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Anagrams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/group-anagrams/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hash/GroupAnagrams.java</t>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Implement Binary Search Recursion Array</t>
+  </si>
+  <si>
+    <t>Implement Binary Search Iterative Array</t>
+  </si>
+  <si>
+    <t>Implmenet binary search LinkedList Recursion</t>
+  </si>
+  <si>
+    <t>Implement Binary search iteraive</t>
+  </si>
+  <si>
+    <t>Find the log base 2  value of a number</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>hash/GroupAnagrams.java</t>
   </si>
   <si>
     <t xml:space="preserve">HashMaps equals do work,Note you can use Bitwise for this code, can you do it ? </t>
@@ -150,127 +163,127 @@
     <t xml:space="preserve">Reach here </t>
   </si>
   <si>
-    <t xml:space="preserve">Learning:</t>
+    <t>Learning:</t>
   </si>
   <si>
     <t xml:space="preserve">Warm up </t>
   </si>
   <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p171896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p184030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p172267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p143825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p162477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p103895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p115863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p199216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p138183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p172063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p161056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p147483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p108853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p163411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p130896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p168564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p197720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p130781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p137729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistakes, substring the end index is always excluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p174148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p174254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchout for StringIndexOutOfBoundsException</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p144623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what if index is -negative ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p139075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p139076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p132118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learnt concat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p194786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p196652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p142247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p151940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p105745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p110141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p151359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p141494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p141736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistakes:
+    <t>https://codingbat.com/prob/p171896</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p184030</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p172267</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p143825</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p162477</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p103895</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p115863</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p199216</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p138183</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p172063</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p161056</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p147483</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p108853</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p163411</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p130896</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p168564</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p197720</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p130781</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p137729</t>
+  </si>
+  <si>
+    <t>Mistakes, substring the end index is always excluded</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p174148</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p174254</t>
+  </si>
+  <si>
+    <t>Watchout for StringIndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p144623</t>
+  </si>
+  <si>
+    <t>what if index is -negative ?</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p139075</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p139076</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p132118</t>
+  </si>
+  <si>
+    <t>Learnt concat</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p194786</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p196652</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p142247</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p151940</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p105745</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p110141</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p151359</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p141494</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p141736</t>
+  </si>
+  <si>
+    <t>Mistakes:
 for(int i=0;i&lt;str.length();i+=2){ // i+=2 is wrong
     if(str.substring(i,i+2).equals("is")) isCount++;
   }
@@ -283,7 +296,7 @@
   }</t>
   </si>
   <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p197890</t>
+    <t>https://codingbat.com/prob/p197890</t>
   </si>
   <si>
     <t xml:space="preserve">Given String "23+423-42+332" extract all the numbers </t>
@@ -292,97 +305,97 @@
     <t xml:space="preserve">encode decode string . </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.codewars.com/kata/5d98b6b38b0f6c001a461198/train/java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strings/Binaries.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word a10n (abbreviation)</t>
+    <t>https://www.codewars.com/kata/5d98b6b38b0f6c001a461198/train/java</t>
+  </si>
+  <si>
+    <t>strings/Binaries.java</t>
+  </si>
+  <si>
+    <t>Word a10n (abbreviation)</t>
   </si>
   <si>
     <t xml:space="preserve">warm up </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.codewars.com/kata/5375f921003bf62192000746/train/java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strings/Abbriviation.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.codewars.com/kata/5e2733f0e7432a000fb5ecc4/train/java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
+    <t>https://www.codewars.com/kata/5375f921003bf62192000746/train/java</t>
+  </si>
+  <si>
+    <t>strings/Abbriviation.java</t>
+  </si>
+  <si>
+    <t>https://www.codewars.com/kata/5e2733f0e7432a000fb5ecc4/train/java</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t xml:space="preserve">Implemement Single Linked List Using </t>
   </si>
   <si>
-    <t xml:space="preserve">Print linked list in reverse  elements Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print linked list in reverse elements Recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print linked list elements Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print linked list elements Recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node at a given index in linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/node-at-a-given-index-in-linked-list/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the tail of the LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linked List Insertion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/linked-list-insertion-1587115620/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count the number of nodes in Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/count-nodes-of-linked-list/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count the number of nodes in Linked List Recursive</t>
+    <t>Print linked list in reverse  elements Iteratively</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1</t>
+  </si>
+  <si>
+    <t>Print linked list in reverse elements Recursively</t>
+  </si>
+  <si>
+    <t>Print linked list elements Iteratively</t>
+  </si>
+  <si>
+    <t>Print linked list elements Recursively</t>
+  </si>
+  <si>
+    <t>Node at a given index in linked list</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/node-at-a-given-index-in-linked-list/1</t>
+  </si>
+  <si>
+    <t>Find the tail of the LinkedList</t>
+  </si>
+  <si>
+    <t>Warm Up</t>
+  </si>
+  <si>
+    <t>Linked List Insertion</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/linked-list-insertion-1587115620/1</t>
+  </si>
+  <si>
+    <t>Count the number of nodes in Linked List</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-nodes-of-linked-list/1</t>
+  </si>
+  <si>
+    <t>Count the number of nodes in Linked List Recursive</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Linked List Length Even or Odd?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1</t>
+    <t>Linked List Length Even or Odd?</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1</t>
   </si>
   <si>
     <t xml:space="preserve">Linked List Length Even or Odd? Can you do it using without using a counter variable ? </t>
   </si>
   <si>
-    <t xml:space="preserve">Linked List Length Even or Odd? Can you do it using recursion No additional parameter</t>
+    <t>Linked List Length Even or Odd? Can you do it using recursion No additional parameter</t>
   </si>
   <si>
     <t xml:space="preserve">Identical Linked Lists </t>
   </si>
   <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/identical-linked-lists/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: This pattern of code where I am dealing with two items I struggle , Need to get rid of the fear</t>
+    <t>https://practice.geeksforgeeks.org/problems/identical-linked-lists/1</t>
+  </si>
+  <si>
+    <t>Note: This pattern of code where I am dealing with two items I struggle , Need to get rid of the fear</t>
   </si>
   <si>
     <t xml:space="preserve">Identical Linked Lists  Can you do it using recursion ? </t>
@@ -391,430 +404,430 @@
     <t xml:space="preserve">Find the last n elements of linked List Using Stack </t>
   </si>
   <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the last n elements of linked List using recursion</t>
+    <t>https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1</t>
+  </si>
+  <si>
+    <t>Find the last n elements of linked List using recursion</t>
   </si>
   <si>
     <t xml:space="preserve">Find the last n elements of linked List without using stack </t>
   </si>
   <si>
-    <t xml:space="preserve">Find all Even nodes in linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle element in the linked list</t>
+    <t>Find all Even nodes in linked List</t>
+  </si>
+  <si>
+    <t>Find the middle element in the linked list</t>
   </si>
   <si>
     <t xml:space="preserve">Check if linked list is circular </t>
   </si>
   <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/circular-linked-list/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you do It without a true while loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first leaf node in the Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of nodes in a binary tree Iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of nodes in a binary tree recursive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum Element in Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.codewars.com/kata/57e5279b7cf1aea5cf000359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maxmum Element in Binary Tree Iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in binary Tree Recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in binary Tree Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert An Element in the binary tree Where ever you want , Use Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 5</t>
+    <t>https://practice.geeksforgeeks.org/problems/circular-linked-list/1</t>
+  </si>
+  <si>
+    <t>Can you do It without a true while loop</t>
+  </si>
+  <si>
+    <t>Find the first leaf node in the Binary tree</t>
+  </si>
+  <si>
+    <t>Find the number of nodes in a binary tree Iterative</t>
+  </si>
+  <si>
+    <t>Find the number of nodes in a binary tree recursive</t>
+  </si>
+  <si>
+    <t>Find Maximum Element in Binary Tree</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>https://www.codewars.com/kata/57e5279b7cf1aea5cf000359</t>
+  </si>
+  <si>
+    <t>CIQ,Problem1</t>
+  </si>
+  <si>
+    <t>Find Maxmum Element in Binary Tree Iterative</t>
+  </si>
+  <si>
+    <t>CIQ,Problem2</t>
+  </si>
+  <si>
+    <t>Search an element in binary Tree Recursively</t>
+  </si>
+  <si>
+    <t>CIQ,Problem3</t>
+  </si>
+  <si>
+    <t>Search an element in binary Tree Iteratively</t>
+  </si>
+  <si>
+    <t>CIQ,Problem4</t>
+  </si>
+  <si>
+    <t>Insert An Element in the binary tree Where ever you want , Use Level Order traversal</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 5</t>
   </si>
   <si>
     <t xml:space="preserve">Find the size of binary tree, Recursively </t>
   </si>
   <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the size of binary tree, Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print the level Order traversal in reverse order, 1,2,3,4,5,6,7 ( level order, left to right), print it 4,5,6,7,2,3,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 8</t>
+    <t>https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>CIQ,problem 6</t>
+  </si>
+  <si>
+    <t>Find the size of binary tree, Iteratively</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 7</t>
+  </si>
+  <si>
+    <t>Print the level Order traversal in reverse order, 1,2,3,4,5,6,7 ( level order, left to right), print it 4,5,6,7,2,3,1</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 8</t>
   </si>
   <si>
     <t xml:space="preserve">Delete the Tree </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the height of the binary tree using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the height of the binary tree, without recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the deepest node in the binary Tree, using Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findt the deepest node in the binary tree, using recusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a given node from binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 13</t>
+    <t>CIQ,Problem 9</t>
+  </si>
+  <si>
+    <t>Find the height of the binary tree using recursion</t>
+  </si>
+  <si>
+    <t>Find the height of the binary tree, without recursion</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 11</t>
+  </si>
+  <si>
+    <t>Find the deepest node in the binary Tree, using Iteratively</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 12</t>
+  </si>
+  <si>
+    <t>Findt the deepest node in the binary tree, using recusion</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Delete a given node from binary tree</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 13</t>
   </si>
   <si>
     <t xml:space="preserve">Find the number of leaves in binary tree without recursion </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 14</t>
+    <t>CIQ,Problem 14</t>
   </si>
   <si>
     <t xml:space="preserve">Find the number of leaves in binary tree using recursion </t>
   </si>
   <si>
-    <t xml:space="preserve">self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of full nodes in the binary tree without using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of FullNodes in the binary Tree with recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of half nodes in the binary tree without recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ, Problem 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of half nodes in the binary tree with recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given two binary Tree, return true if they are structurally equal recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ, Problem 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given two binary Tree, return true if they are structurally equal iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the diameter of binary tree. The diameter of a tree is the nuumber of nodes on the longest path between two leaes in the tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ, Problem 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the level that has the maximum sum in the binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ, Problem 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pring all the root to leave paths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the root to leaeves path iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given  a sum check if a path exists from root to leave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the sum of all elements in binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 22</t>
+    <t>self</t>
+  </si>
+  <si>
+    <t>Find the number of full nodes in the binary tree without using recursion</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 15</t>
+  </si>
+  <si>
+    <t>Find the number of FullNodes in the binary Tree with recursion</t>
+  </si>
+  <si>
+    <t>Find the number of half nodes in the binary tree without recursion</t>
+  </si>
+  <si>
+    <t>CIQ, Problem 16</t>
+  </si>
+  <si>
+    <t>Find the number of half nodes in the binary tree with recursion</t>
+  </si>
+  <si>
+    <t>Slef</t>
+  </si>
+  <si>
+    <t>Given two binary Tree, return true if they are structurally equal recursively</t>
+  </si>
+  <si>
+    <t>CIQ, Problem 17</t>
+  </si>
+  <si>
+    <t>Given two binary Tree, return true if they are structurally equal iteratively</t>
+  </si>
+  <si>
+    <t>Find the diameter of binary tree. The diameter of a tree is the nuumber of nodes on the longest path between two leaes in the tree</t>
+  </si>
+  <si>
+    <t>CIQ, Problem 18</t>
+  </si>
+  <si>
+    <t>Find the level that has the maximum sum in the binary tree</t>
+  </si>
+  <si>
+    <t>CIQ, Problem 19</t>
+  </si>
+  <si>
+    <t>Pring all the root to leave paths</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 20</t>
+  </si>
+  <si>
+    <t>Print all the root to leaeves path iteratively</t>
+  </si>
+  <si>
+    <t>Given  a sum check if a path exists from root to leave</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 21</t>
+  </si>
+  <si>
+    <t>Find the sum of all elements in binary Tree</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 22</t>
   </si>
   <si>
     <t xml:space="preserve">Find the sum of all the elements in the binary tree iteratively </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Prolblem 23</t>
+    <t>CIQ,Prolblem 23</t>
   </si>
   <si>
     <t xml:space="preserve">Given a tree return the mirror </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 24</t>
+    <t>CIQ,Problem 24</t>
   </si>
   <si>
     <t xml:space="preserve">Given two trees check if they are mirror of each other </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 25</t>
+    <t>CIQ,Problem 25</t>
   </si>
   <si>
     <t xml:space="preserve">Give an alrotithn for constructing a tree from given inorder and preorder traversal </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two traversal sequences given , can a tree be constructed uniquely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all ansestor of a given node, recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all ancestor of a given node, iteratively &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA of two nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,probem 29</t>
+    <t>CIQ,problem 26</t>
+  </si>
+  <si>
+    <t>Two traversal sequences given , can a tree be constructed uniquely</t>
+  </si>
+  <si>
+    <t>CIQ,problem 27</t>
+  </si>
+  <si>
+    <t>Print all ansestor of a given node, recursively</t>
+  </si>
+  <si>
+    <t>CIQ,problem 28</t>
+  </si>
+  <si>
+    <t>Print all ancestor of a given node, iteratively &gt;</t>
+  </si>
+  <si>
+    <t>Find LCA of two nodes</t>
+  </si>
+  <si>
+    <t>CIQ,probem 29</t>
   </si>
   <si>
     <t xml:space="preserve">Zigzag Tree Traversal </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ, problem 30</t>
+    <t>CIQ, problem 30</t>
   </si>
   <si>
     <t xml:space="preserve">Print vertical sum </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 31</t>
+    <t>CIQ,problem 31</t>
   </si>
   <si>
     <t xml:space="preserve">How many different binary tree s are possible with n nodes. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given preorder traversal with 'L' as leaves and 'I' as internal nodes and each node has either 0 or 2 children . Construct the tree, Example inpt ILILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 33</t>
+    <t>CIQ,Problem 32</t>
+  </si>
+  <si>
+    <t>Given preorder traversal with 'L' as leaves and 'I' as internal nodes and each node has either 0 or 2 children . Construct the tree, Example inpt ILILL</t>
+  </si>
+  <si>
+    <t>CIQ,problem 33</t>
   </si>
   <si>
     <t xml:space="preserve">Given a  binary tree with three pointers left, right and nextSibling) give an algorithm for filling the nextsibling pointers assuming they are Null Initially </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variation of 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a tree, give an algorithm for finding the sum of all the elements of the tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 36</t>
+    <t>CIQ,problem 34</t>
+  </si>
+  <si>
+    <t>Variation of 34</t>
+  </si>
+  <si>
+    <t>CIQ,problem 35</t>
+  </si>
+  <si>
+    <t>Given a tree, give an algorithm for finding the sum of all the elements of the tree</t>
+  </si>
+  <si>
+    <t>CIQ,problem 36</t>
   </si>
   <si>
     <t xml:space="preserve">For a 4-nary tree , wha tis the maxium possible height with 100 nodes ? Assume height of a single node is 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a 4-nary tree what is the minimum possible height with n-nodes ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 38</t>
+    <t>CIQ,problem 37</t>
+  </si>
+  <si>
+    <t>For a 4-nary tree what is the minimum possible height with n-nodes ?</t>
+  </si>
+  <si>
+    <t>CIQ,problem 38</t>
   </si>
   <si>
     <t xml:space="preserve">Given a node in the generic tree, given an algorithm for couting the number of siblings for that node </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 39</t>
+    <t>CIQ,problem 39</t>
   </si>
   <si>
     <t xml:space="preserve">Given a node in the generic tree, give an algorith to count the number of children for that nodes. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a parent array P , where p[i] indicates the parent of ith node in the tree ,. Give an algorithm mfor findig the height or depth of tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 41</t>
+    <t>CIQ,problem 40</t>
+  </si>
+  <si>
+    <t>Given a parent array P , where p[i] indicates the parent of ith node in the tree ,. Give an algorithm mfor findig the height or depth of tree</t>
+  </si>
+  <si>
+    <t>CIQ,problem 41</t>
   </si>
   <si>
     <t xml:space="preserve">Given two trees how do we check wheter the trees are isomorphic to each other or not ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 42</t>
+    <t>CIQ,problem 42</t>
   </si>
   <si>
     <t xml:space="preserve">Given two trees how do we chck wheter they are quasi-isomorthpic to each other or not ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 43</t>
+    <t>CIQ,problem 43</t>
   </si>
   <si>
     <t xml:space="preserve">A full k-ary tree is a tree where each node has either 0 or k children . Given an array which contains the preorder traversal of full k-ary tree, given an algorithm for constructing the full k-ary tree. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do some implementations of Threaded binary tree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a given binary tree( not threaded) how do we find the preorder successor ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a given binary tree not threaded how do we find the inorder successor ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build an expression tree from postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary search tree implementation</t>
+    <t>CIQ,problem 44</t>
+  </si>
+  <si>
+    <t>Do some implementations of Threaded binary tree.</t>
+  </si>
+  <si>
+    <t>For a given binary tree( not threaded) how do we find the preorder successor ?</t>
+  </si>
+  <si>
+    <t>CIQ,problem 45</t>
+  </si>
+  <si>
+    <t>For a given binary tree not threaded how do we find the inorder successor ?</t>
+  </si>
+  <si>
+    <t>CIQ,problem 46</t>
+  </si>
+  <si>
+    <t>Build an expression tree from postfix expression</t>
+  </si>
+  <si>
+    <t>Binary search tree implementation</t>
   </si>
   <si>
     <t xml:space="preserve">Gien pointers to two nodes in a binary search tree, find the lowest common ancestor . Assume that both valuese already exists I the tree </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,:problem 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give an algorithm for finding the shortest path between two nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,:problem 48</t>
+    <t>CIQ,:problem 47</t>
+  </si>
+  <si>
+    <t>Give an algorithm for finding the shortest path between two nodes in a BST</t>
+  </si>
+  <si>
+    <t>CIQ,:problem 48</t>
   </si>
   <si>
     <t xml:space="preserve">Give an algorithm for couting the number of BSTs possible with n nodes. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 49</t>
+    <t>CIQ,Problem 49</t>
   </si>
   <si>
     <t xml:space="preserve">Give an algorithm for checking whether the given biary tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Correting the above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">improving the complexity</t>
+    <t>Correting the above</t>
+  </si>
+  <si>
+    <t>improving the complexity</t>
   </si>
   <si>
     <t xml:space="preserve">improving further </t>
   </si>
   <si>
-    <t xml:space="preserve">Give an algorithm for converting BST to circular DLL with space complexity O(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 54</t>
+    <t>Give an algorithm for converting BST to circular DLL with space complexity O(1)</t>
+  </si>
+  <si>
+    <t>CIQ,problem 54</t>
   </si>
   <si>
     <t xml:space="preserve">Given a sorted doubly linked list, give an algorithm for converting it into balanced binary search tree. </t>
   </si>
   <si>
-    <t xml:space="preserve">Given a sorted array give an algorithm for converting the array to BST ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a singly linked list where elements are sorted in ascending order , convert it to a height balanced BST.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexity and improvement to above one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Root to leaf path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/number-of-root-to-leaf-paths/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree/NumberOfRootToLeafPaths.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Corresponding Node of a Binary Tree in a Clone of That Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree/FindACorrespondingNodeOfABinaryTreeInACloneOfThatTree.java</t>
+    <t>Given a sorted array give an algorithm for converting the array to BST ,</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 56</t>
+  </si>
+  <si>
+    <t>Given a singly linked list where elements are sorted in ascending order , convert it to a height balanced BST.</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 57</t>
+  </si>
+  <si>
+    <t>Complexity and improvement to above one</t>
+  </si>
+  <si>
+    <t>Number of Root to leaf path</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/number-of-root-to-leaf-paths/1</t>
+  </si>
+  <si>
+    <t>tree/NumberOfRootToLeafPaths.java</t>
+  </si>
+  <si>
+    <t>Find a Corresponding Node of a Binary Tree in a Clone of That Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree/</t>
+  </si>
+  <si>
+    <t>tree/FindACorrespondingNodeOfABinaryTreeInACloneOfThatTree.java</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me when you reach here </t>
@@ -823,281 +836,324 @@
     <t xml:space="preserve">What are the minimum and maximum number of elements in a heap of height h? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 1</t>
+    <t>CIQ: problem 1</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a min-heap with seven distinct elements so that the preorder traversal of it gives the elements in sorted order ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 2</t>
+    <t>CIQ: problem 2</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a max-heap with seven distinct elements so that the preorder traversal of it gives the elements in sorted order ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 3</t>
+    <t>CIQ: problem 3</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a min-heap and a max-heap with seven distinct elements so that the inorder traversal of it gives the elements in sorted order ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 4</t>
+    <t>CIQ: problem 4</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a in-heap/max-heap with seven distinct elements tso that the postorder traversal of it gives the elements in sorted order ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 5</t>
+    <t>CIQ: problem 5</t>
   </si>
   <si>
     <t xml:space="preserve">Show that the height of a heap with n elements is logn ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a min-heap , give an algorithm for fiding the maximum element ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 7</t>
+    <t>CIQ: problem 6</t>
+  </si>
+  <si>
+    <t>Given a min-heap , give an algorithm for fiding the maximum element ?</t>
+  </si>
+  <si>
+    <t>CIQ: problem 7</t>
   </si>
   <si>
     <t xml:space="preserve">Delete a given element from a min heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 8</t>
+    <t>CIQ: problem 8</t>
   </si>
   <si>
     <t xml:space="preserve">Algo for deleting the ith index in a min heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prove that , for a complete binary tree of height h the sum of the heiht of all odes is O(n-h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 10</t>
+    <t>CIQ: problem 9</t>
+  </si>
+  <si>
+    <t>Prove that , for a complete binary tree of height h the sum of the heiht of all odes is O(n-h)</t>
+  </si>
+  <si>
+    <t>CIQ: problem 10</t>
   </si>
   <si>
     <t xml:space="preserve">merge two max heaps ,of size m+n and the size of other is n . </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve the complexity of the above one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there an efficient alrogithm for merging 2 max=heaps( sorted as an array ) , assume both arrays have n elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 14</t>
+    <t>CIQ: problem 12</t>
+  </si>
+  <si>
+    <t>Improve the complexity of the above one.</t>
+  </si>
+  <si>
+    <t>CIQ: problem 13</t>
+  </si>
+  <si>
+    <t>Is there an efficient alrogithm for merging 2 max=heaps( sorted as an array ) , assume both arrays have n elements</t>
+  </si>
+  <si>
+    <t>CIQ: problem 14</t>
   </si>
   <si>
     <t xml:space="preserve">Finding kth smallest element in the min-heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 15</t>
+    <t>CIQ: problem 15</t>
   </si>
   <si>
     <t xml:space="preserve">Can you improve rpobelm 15 </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 16</t>
+    <t>CIQ: problem 16</t>
   </si>
   <si>
     <t xml:space="preserve">Find k max elements from max heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 17</t>
+    <t>CIQ: problem 17</t>
   </si>
   <si>
     <t xml:space="preserve">Can we imporve it </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 18</t>
+    <t>CIQ: problem 18</t>
   </si>
   <si>
     <t xml:space="preserve">How do you implement stack using heap  ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 19</t>
+    <t>CIQ: problem 19</t>
   </si>
   <si>
     <t xml:space="preserve">How do you implement a queue using heap  ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 20</t>
+    <t>CIQ: problem 20</t>
   </si>
   <si>
     <t xml:space="preserve">Merge k sorted lists with total of n elements </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">improve 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 23</t>
+    <t>CIQ: problem 21</t>
+  </si>
+  <si>
+    <t>Improve 22</t>
+  </si>
+  <si>
+    <t>CIQ: problem 22</t>
+  </si>
+  <si>
+    <t>improve 23</t>
+  </si>
+  <si>
+    <t>CIQ: problem 23</t>
   </si>
   <si>
     <t xml:space="preserve">Given two arrays find the largest n pairs. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 24</t>
+    <t>CIQ: problem 24</t>
   </si>
   <si>
     <t xml:space="preserve">Design a min-max heap which supports both the min and max heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 25</t>
+    <t>CIQ: problem 25</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic median finding. Design a heap data structure that spports fiding median </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 26</t>
+    <t>CIQ: problem 26</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum sum in sliding window </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">improve 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 29</t>
+    <t>CIQ: problem 27</t>
+  </si>
+  <si>
+    <t>Improve 28</t>
+  </si>
+  <si>
+    <t>CIQ: problem 28</t>
+  </si>
+  <si>
+    <t>improve 29</t>
+  </si>
+  <si>
+    <t>CIQ: problem 29</t>
   </si>
   <si>
     <t xml:space="preserve">Designa priority queue where a middle prioroty is withdrawn first </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given two heaps , how to dyou union them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 31</t>
+    <t>CIQ: problem 30</t>
+  </si>
+  <si>
+    <t>Given two heaps , how to dyou union them</t>
+  </si>
+  <si>
+    <t>CIQ: problem 31</t>
   </si>
   <si>
     <t xml:space="preserve">Median of infinite series of itegers </t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t>c</t>
   </si>
   <si>
     <t xml:space="preserve">Implement a stack using linked list, push, pop, </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement a stack using Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you implement with generics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me when you reach here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find All Numbers Disappeared in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy,Tricky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array/FindAllNumbersDisapearedInAnArray.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equal Sides Of An Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codewars.com/kata/5679aa472b8f57fb8c000047/solutions/java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Bloom Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design All in One data strcuture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutations of a given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutations of letter in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutations of a given LinkedLIst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backtracking to find all subsets</t>
+    <t>Implement a stack using Array</t>
+  </si>
+  <si>
+    <t>Can you implement with generics</t>
+  </si>
+  <si>
+    <t>Tell me when you reach here</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Easy,Tricky</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/</t>
+  </si>
+  <si>
+    <t>array/FindAllNumbersDisapearedInAnArray.java</t>
+  </si>
+  <si>
+    <t>Equal Sides Of An Array</t>
+  </si>
+  <si>
+    <t>codewars.com/kata/5679aa472b8f57fb8c000047/solutions/java</t>
+  </si>
+  <si>
+    <t>Design Bloom Filter</t>
+  </si>
+  <si>
+    <t>Design All in One data strcuture</t>
+  </si>
+  <si>
+    <t>Permutations of a given string</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0</t>
+  </si>
+  <si>
+    <t>Permutations of letter in an array</t>
+  </si>
+  <si>
+    <t>Permutations of a given LinkedLIst</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>Backtracking to find all subsets</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me when you are here </t>
+  </si>
+  <si>
+    <t>Convert Binary Number in a Linked List to Integer    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer/</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List    </t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List    </t>
+  </si>
+  <si>
+    <t>Reverse Linked List    </t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists    </t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List    </t>
+  </si>
+  <si>
+    <t>Linked List Cycle    </t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists    </t>
+  </si>
+  <si>
+    <t>Palindrome Linked List    </t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-linked-list-elements/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ hh:mm"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1107,7 +1163,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -1122,7 +1178,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="9"/>
       <color rgb="FF629755"/>
       <name val="Menlo"/>
@@ -1166,146 +1222,97 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1364,31 +1371,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212121"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.83"/>
+    <col min="1" max="1" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,165 +1717,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="file://localhost/Users/ab670958/Documents/ FORM12BB.pdf"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.67"/>
+    <col min="1" max="1" width="115.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1574,276 +1881,268 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>258</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>260</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>264</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>268</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>270</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>276</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>286</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>290</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>292</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>294</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>296</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>298</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>300</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>302</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>304</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>306</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>308</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>310</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>312</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>314</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>316</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1858,36 +2157,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="123.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43"/>
+    <col min="1" max="1" width="123.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1901,42 +2192,34 @@
         <v>317</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.5"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1950,42 +2233,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.82"/>
+    <col min="1" max="1" width="66.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1999,41 +2272,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.82"/>
+    <col min="1" max="1" width="95.5" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2047,60 +2312,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>321</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.16"/>
+    <col min="1" max="1" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2115,33 +2370,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2156,35 +2403,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73"/>
+    <col min="1" max="1" width="54.83203125" customWidth="1"/>
+    <col min="2" max="2" width="81.1640625" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>317</v>
       </c>
@@ -2198,11 +2437,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>323</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2212,94 +2451,78 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="0" t="s">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B500" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/"/>
-    <hyperlink ref="D2" r:id="rId2" display="array/FindAllNumbersDisapearedInAnArray.java"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>329</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A200" activeCellId="0" sqref="A200"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.16"/>
+    <col min="1" max="1" width="58.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2313,94 +2536,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.67"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2414,34 +2619,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>334</v>
       </c>
@@ -2449,48 +2654,40 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="35" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>337</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A200" activeCellId="0" sqref="A200"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.83"/>
+    <col min="1" max="1" width="73.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2504,42 +2701,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.67"/>
+    <col min="1" max="1" width="63.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2553,48 +2742,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.82"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2608,11 +2789,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2621,49 +2802,41 @@
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="hash/GroupAnagrams.java"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.33"/>
+    <col min="1" max="1" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2680,241 +2853,241 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="187" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2924,21 +3097,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -2948,11 +3121,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2962,90 +3135,82 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="0" t="s">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://codingbat.com/prob/p171896"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://codingbat.com/prob/p184030"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://codingbat.com/prob/p172267"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://codingbat.com/prob/p143825"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://codingbat.com/prob/p162477"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://codingbat.com/prob/p103895"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://codingbat.com/prob/p115863"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://codingbat.com/prob/p199216"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://codingbat.com/prob/p138183"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://codingbat.com/prob/p172063"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://codingbat.com/prob/p161056"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://codingbat.com/prob/p147483"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://codingbat.com/prob/p108853"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://codingbat.com/prob/p163411"/>
-    <hyperlink ref="C16" r:id="rId15" display="https://codingbat.com/prob/p130896"/>
-    <hyperlink ref="C17" r:id="rId16" display="https://codingbat.com/prob/p168564"/>
-    <hyperlink ref="C18" r:id="rId17" display="https://codingbat.com/prob/p197720"/>
-    <hyperlink ref="C19" r:id="rId18" display="https://codingbat.com/prob/p130781"/>
-    <hyperlink ref="C20" r:id="rId19" display="https://codingbat.com/prob/p137729"/>
-    <hyperlink ref="C21" r:id="rId20" display="https://codingbat.com/prob/p174148"/>
-    <hyperlink ref="C22" r:id="rId21" display="https://codingbat.com/prob/p174254"/>
-    <hyperlink ref="C23" r:id="rId22" display="https://codingbat.com/prob/p144623"/>
-    <hyperlink ref="C24" r:id="rId23" display="https://codingbat.com/prob/p139075"/>
-    <hyperlink ref="C25" r:id="rId24" display="https://codingbat.com/prob/p139076"/>
-    <hyperlink ref="C26" r:id="rId25" display="https://codingbat.com/prob/p132118"/>
-    <hyperlink ref="C27" r:id="rId26" display="https://codingbat.com/prob/p194786"/>
-    <hyperlink ref="C28" r:id="rId27" display="https://codingbat.com/prob/p196652"/>
-    <hyperlink ref="C29" r:id="rId28" display="https://codingbat.com/prob/p142247"/>
-    <hyperlink ref="C30" r:id="rId29" display="https://codingbat.com/prob/p151940"/>
-    <hyperlink ref="C31" r:id="rId30" display="https://codingbat.com/prob/p105745"/>
-    <hyperlink ref="C32" r:id="rId31" display="https://codingbat.com/prob/p105745"/>
-    <hyperlink ref="C33" r:id="rId32" display="https://codingbat.com/prob/p110141"/>
-    <hyperlink ref="C34" r:id="rId33" display="https://codingbat.com/prob/p151359"/>
-    <hyperlink ref="C35" r:id="rId34" display="https://codingbat.com/prob/p141494"/>
-    <hyperlink ref="C37" r:id="rId35" display="https://codingbat.com/prob/p141736"/>
-    <hyperlink ref="C38" r:id="rId36" display="https://codingbat.com/prob/p197890"/>
-    <hyperlink ref="D40" r:id="rId37" display="strings/Binaries.java"/>
-    <hyperlink ref="C41" r:id="rId38" display="https://www.codewars.com/kata/5375f921003bf62192000746/train/java"/>
-    <hyperlink ref="D41" r:id="rId39" display="strings/Abbriviation.java"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="D40" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="C41" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="13.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="85.33"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="85.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3068,107 +3233,107 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5381125473</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="E7" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5381125476</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="E8" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5381125477</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="E9" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5381125478</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="E10" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5381125479</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="E12" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="13" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.538112548</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="E13" s="13">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -3176,63 +3341,63 @@
       </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5381125481</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="E15" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5380656007</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="E18" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+      <c r="H18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5380656008</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="E19" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -3240,111 +3405,209 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>114</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.5380656009</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="E21" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="12" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.538065601</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="E22" s="12">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>118</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="14" t="n">
-        <f aca="true">NOW()</f>
-        <v>44022.538065601</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="E26" s="14">
+        <f ca="1">NOW()</f>
+        <v>44022.541283796294</v>
+      </c>
+      <c r="H26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="36" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="20">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0.53888888888888886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1"/>
-    <hyperlink ref="C7" r:id="rId2" display="https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1"/>
-    <hyperlink ref="C8" r:id="rId3" display="https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1"/>
-    <hyperlink ref="C9" r:id="rId4" display="https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1"/>
-    <hyperlink ref="C10" r:id="rId5" display="https://practice.geeksforgeeks.org/problems/node-at-a-given-index-in-linked-list/1"/>
-    <hyperlink ref="C12" r:id="rId6" display="https://practice.geeksforgeeks.org/problems/linked-list-insertion-1587115620/1"/>
-    <hyperlink ref="C13" r:id="rId7" display="https://practice.geeksforgeeks.org/problems/count-nodes-of-linked-list/1"/>
-    <hyperlink ref="C14" r:id="rId8" display="https://practice.geeksforgeeks.org/problems/count-nodes-of-linked-list/1"/>
-    <hyperlink ref="C15" r:id="rId9" display="https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1"/>
-    <hyperlink ref="C16" r:id="rId10" display="https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1"/>
-    <hyperlink ref="C17" r:id="rId11" display="https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1"/>
-    <hyperlink ref="C18" r:id="rId12" display="https://practice.geeksforgeeks.org/problems/identical-linked-lists/1"/>
-    <hyperlink ref="C19" r:id="rId13" display="https://practice.geeksforgeeks.org/problems/identical-linked-lists/1"/>
-    <hyperlink ref="C20" r:id="rId14" display="https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1"/>
-    <hyperlink ref="C21" r:id="rId15" display="https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1"/>
-    <hyperlink ref="C22" r:id="rId16" display="https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1"/>
-    <hyperlink ref="C26" r:id="rId17" display="https://practice.geeksforgeeks.org/problems/circular-linked-list/1"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="C26" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="A36" r:id="rId18" display="https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer" xr:uid="{90457907-54A9-2D42-8A70-F4C20A4A7523}"/>
+    <hyperlink ref="C36" r:id="rId19" xr:uid="{2825C2B1-F74F-1D40-AFF7-B6D122930076}"/>
+    <hyperlink ref="A38" r:id="rId20" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{6638B466-E2A5-9D41-AAF9-13473FB0B928}"/>
+    <hyperlink ref="A37" r:id="rId21" display="https://leetcode.com/problems/delete-node-in-a-linked-list" xr:uid="{2A5BF055-F7FA-304F-86E7-6A468FC04451}"/>
+    <hyperlink ref="A39" r:id="rId22" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{AF886C11-7BFB-3440-B734-4884831EB6DC}"/>
+    <hyperlink ref="A41" r:id="rId23" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list" xr:uid="{ACE670A8-B52B-6247-91AD-E3BD3B02EF89}"/>
+    <hyperlink ref="A42" r:id="rId24" display="https://leetcode.com/problems/linked-list-cycle" xr:uid="{F2FF032D-4631-DB4D-A8E1-08A88457002B}"/>
+    <hyperlink ref="A43" r:id="rId25" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{9BE99707-9ED5-5040-BBB5-ADD9E8ADD2F7}"/>
+    <hyperlink ref="A44" r:id="rId26" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{4D6AFB8A-CE1E-834B-8539-645FDF5BA221}"/>
+    <hyperlink ref="A45" r:id="rId27" display="https://leetcode.com/problems/remove-linked-list-elements" xr:uid="{B66266D2-B88D-1C4D-B4BB-3756CA919774}"/>
+    <hyperlink ref="C37" r:id="rId28" xr:uid="{3FDBB3BD-3A76-EA42-B7DF-516F2FE431E9}"/>
+    <hyperlink ref="C38" r:id="rId29" xr:uid="{417B85C1-A9D9-E14D-8A2F-C004A39DB771}"/>
+    <hyperlink ref="C39" r:id="rId30" xr:uid="{DFDC1D83-D4C9-1B48-B2DD-F5DFF599613A}"/>
+    <hyperlink ref="A40" r:id="rId31" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{01953448-4512-AA4B-8A8B-0F96736A8CAD}"/>
+    <hyperlink ref="C40" r:id="rId32" xr:uid="{7C97E2BE-8A0D-5743-B40B-6ADBE27C7F35}"/>
+    <hyperlink ref="C41" r:id="rId33" xr:uid="{1945E4EC-32CC-EA42-B13F-2CC3F5084B38}"/>
+    <hyperlink ref="C42" r:id="rId34" xr:uid="{1942A77D-C1E9-9D46-A202-870766CB4D1C}"/>
+    <hyperlink ref="C43" r:id="rId35" xr:uid="{A0CA1FD7-7D50-4D4A-AEAC-D1EC2AF65D52}"/>
+    <hyperlink ref="C44" r:id="rId36" xr:uid="{49EFA4E8-7139-8A4B-81CF-C2309CA46A08}"/>
+    <hyperlink ref="C45" r:id="rId37" xr:uid="{3E774337-85B2-8F48-B166-9F9541327D31}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A398" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView topLeftCell="A398" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="108"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="74.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.5"/>
+    <col min="1" max="1" width="108" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="74.83203125" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3358,561 +3621,561 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>177</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>192</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>202</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>204</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>208</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>212</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>214</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>216</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>222</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>225</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>227</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>231</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>233</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>235</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>241</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>244</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>249</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3922,11 +4185,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>252</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>31</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -3936,51 +4199,43 @@
         <v>254</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://www.codewars.com/kata/57e5279b7cf1aea5cf000359"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://www.codewars.com/kata/57e5279b7cf1aea5cf000359"/>
-    <hyperlink ref="C10" r:id="rId3" display="https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1"/>
-    <hyperlink ref="C11" r:id="rId4" display="https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1"/>
-    <hyperlink ref="C82" r:id="rId5" display="https://practice.geeksforgeeks.org/problems/number-of-root-to-leaf-paths/1"/>
-    <hyperlink ref="D82" r:id="rId6" display="tree/NumberOfRootToLeafPaths.java"/>
-    <hyperlink ref="D83" r:id="rId7" display="tree/FindACorrespondingNodeOfABinaryTreeInACloneOfThatTree.java"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="C82" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="D82" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="D83" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.67"/>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -3994,18 +4249,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
+++ b/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="369">
   <si>
     <t xml:space="preserve">Questions</t>
   </si>
@@ -150,29 +150,19 @@
     <t xml:space="preserve">medium</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF518843"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">https://leetcode.com/problems/range-sum-query-2d-immutable/</t>
-    </r>
+    <t xml:space="preserve"> https://leetcode.com/problems/range-sum-query-2d-immutable/</t>
   </si>
   <si>
     <t xml:space="preserve">Null handling, dynamic programming, there seems to be even faster way of calculating, than the used for loop. Check it out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/range-sum-query-immutable/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seem to be having a better way , try learn it.</t>
   </si>
   <si>
     <t xml:space="preserve">Find the log base 2  value of a number</t>
@@ -1173,14 +1163,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy\ hh:mm"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy\ hh:mm"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1223,20 +1214,14 @@
       <color rgb="FF99A8BA"/>
       <name val="JetBrains Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF99A8BA"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="13"/>
-      <color rgb="FF518843"/>
-      <name val="JetBrains Mono"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1353,7 +1338,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1398,27 +1383,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1426,7 +1415,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1434,19 +1423,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,7 +1466,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF629755"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1511,7 +1500,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF99A8BA"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF518843"/>
+      <rgbColor rgb="FF629755"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1534,7 +1523,7 @@
       <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.83"/>
@@ -1728,269 +1717,269 @@
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2015,19 +2004,19 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2053,7 +2042,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="123.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
@@ -2062,17 +2051,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>345</v>
+      <c r="D1" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,7 +2091,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.17"/>
@@ -2111,22 +2100,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2151,31 +2140,31 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2200,30 +2189,30 @@
       <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -2231,17 +2220,17 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2266,25 +2255,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2310,22 +2299,22 @@
       <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2351,55 +2340,55 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>350</v>
+      <c r="A2" s="23" t="s">
+        <v>353</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>351</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2428,19 +2417,19 @@
       <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2465,10 +2454,10 @@
       <selection pane="topLeft" activeCell="A200" activeCellId="0" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.16"/>
   </cols>
@@ -2543,7 +2532,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2566,7 +2555,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
@@ -2575,62 +2564,62 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>358</v>
+      <c r="A2" s="23" t="s">
+        <v>361</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>360</v>
+      <c r="A3" s="23" t="s">
+        <v>363</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
-        <v>361</v>
+      <c r="A4" s="23" t="s">
+        <v>364</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>362</v>
+      <c r="A5" s="23" t="s">
+        <v>365</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>364</v>
+      <c r="A6" s="24" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2655,15 +2644,15 @@
   </sheetPr>
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="101.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="101.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,6 +2689,23 @@
         <v>44025</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="12" t="n">
+        <v>44025</v>
+      </c>
+    </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>26</v>
@@ -2707,7 +2713,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" display="https://leetcode.com/problems/range-sum-query-2d-immutable/"/>
+    <hyperlink ref="C14" r:id="rId1" display=" https://leetcode.com/problems/range-sum-query-2d-immutable/"/>
+    <hyperlink ref="C15" r:id="rId2" display="https://leetcode.com/problems/range-sum-query-immutable/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2730,31 +2737,31 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,49 +2791,49 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2854,259 +2861,259 @@
       <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>45</v>
+      <c r="E1" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,56 +3121,56 @@
     </row>
     <row r="37" customFormat="false" ht="187" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="13" t="s">
-        <v>95</v>
+      <c r="C43" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,344 +3241,344 @@
       <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="85.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>96</v>
+      <c r="E1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="18" t="n">
+        <v>103</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.904872295</v>
+        <v>44025.9122773075</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="18" t="n">
+        <v>104</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723003</v>
+        <v>44025.9122773078</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723005</v>
+        <v>44025.9122773079</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="18" t="n">
+        <v>106</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723006</v>
+        <v>44025.912277308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="18" t="n">
+        <v>110</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723007</v>
+        <v>44025.9122773082</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="19" t="n">
+      <c r="C13" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723008</v>
+        <v>44025.9122773082</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="18" t="n">
+        <v>116</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723009</v>
+        <v>44025.9122773084</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="18" t="n">
+        <v>120</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.904872301</v>
+        <v>44025.9122773085</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="18" t="n">
+        <v>123</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723011</v>
+        <v>44025.9122773086</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="18"/>
+        <v>124</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="18" t="n">
+        <v>126</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723012</v>
+        <v>44025.9122773087</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="18" t="n">
+        <v>127</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="19" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723013</v>
+        <v>44025.9122773088</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="20" t="n">
+        <v>130</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="21" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9048723014</v>
+        <v>44025.9122773089</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="19" t="n">
+        <v>133</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="20" t="n">
         <v>44022</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="19" t="n">
+        <v>135</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="20" t="n">
         <v>44022</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +3647,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="108"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
@@ -3650,600 +3657,600 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>281</v>
+        <v>43</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4277,31 +4284,31 @@
       <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
+++ b/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sorting" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,8 +39,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="E17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">A Bit of struggle, Try again to see if you can come
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="375">
   <si>
     <t xml:space="preserve">Questions</t>
   </si>
@@ -118,6 +143,13 @@
   </si>
   <si>
     <t xml:space="preserve">Follow up do better, Don't use any sorting algo. Rather try do it in place </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanMakeArithmeticProgressionFromSequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* link: https://leetcode.com/problems/can-make-arithmetic-progression-from-sequence/
+</t>
   </si>
   <si>
     <t xml:space="preserve">Do reach here </t>
@@ -349,6 +381,12 @@
     <t xml:space="preserve">https://www.codewars.com/kata/5e2733f0e7432a000fb5ecc4/train/java</t>
   </si>
   <si>
+    <t xml:space="preserve">Generate Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -1127,6 +1165,12 @@
   </si>
   <si>
     <t xml:space="preserve">codewars.com/kata/5679aa472b8f57fb8c000047/solutions/java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LuckyNumberInMatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/lucky-numbers-in-a-matrix/</t>
   </si>
   <si>
     <t xml:space="preserve">Design Bloom Filter</t>
@@ -1171,7 +1215,7 @@
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="169" formatCode="dd/mm/yy\ hh:mm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1217,6 +1261,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="13"/>
+      <color rgb="FF518843"/>
+      <name val="JetBrains Mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FF99A8BA"/>
       <name val="Calibri"/>
@@ -1235,6 +1287,20 @@
       <sz val="9"/>
       <color rgb="FF629755"/>
       <name val="Menlo"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF99A8BA"/>
+      <name val="JetBrains Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1338,7 +1404,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1363,14 +1429,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1383,31 +1441,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1423,19 +1501,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1466,7 +1544,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF629755"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1500,7 +1578,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF99A8BA"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF629755"/>
+      <rgbColor rgb="FF518843"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1519,15 +1597,15 @@
   </sheetPr>
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="110.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.67"/>
   </cols>
@@ -1685,9 +1763,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="29.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>44026</v>
+      </c>
+    </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1809,7 @@
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.67"/>
@@ -1725,13 +1817,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -1739,247 +1831,247 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2004,17 +2096,17 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2042,7 +2134,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="123.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
@@ -2052,21 +2144,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2091,7 +2183,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.17"/>
@@ -2101,13 +2193,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2115,7 +2207,7 @@
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2232,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
@@ -2150,13 +2242,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2164,7 +2256,7 @@
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2189,7 +2281,7 @@
       <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
@@ -2198,13 +2290,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2212,7 +2304,7 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -2220,17 +2312,17 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2347,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.16"/>
@@ -2265,13 +2357,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2299,20 +2391,20 @@
       <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2334,67 +2426,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="72.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>353</v>
+      <c r="A2" s="26" t="s">
+        <v>357</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>357</v>
+      <c r="A3" s="26" t="s">
+        <v>361</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>358</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" s="19" t="n">
+        <v>44027</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/"/>
-    <hyperlink ref="D2" r:id="rId2" display="array/FindAllNumbersDisapearedInAnArray.java"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/"/>
+    <hyperlink ref="D2" r:id="rId3" display="array/FindAllNumbersDisapearedInAnArray.java"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2403,6 +2510,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2417,19 +2525,19 @@
       <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2562,7 @@
       <selection pane="topLeft" activeCell="A200" activeCellId="0" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.52"/>
@@ -2464,13 +2572,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2478,7 +2586,7 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -2486,7 +2594,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2494,7 +2602,7 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2502,12 +2610,12 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2640,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2555,7 +2663,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
@@ -2565,61 +2673,61 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>361</v>
+      <c r="A2" s="26" t="s">
+        <v>367</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>363</v>
+      <c r="A3" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>364</v>
+      <c r="A4" s="26" t="s">
+        <v>370</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>365</v>
+      <c r="A5" s="26" t="s">
+        <v>371</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>367</v>
+      <c r="A6" s="27" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2644,71 +2752,71 @@
   </sheetPr>
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="101.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>28</v>
+      <c r="C1" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>34</v>
+      <c r="A14" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8" t="n">
         <v>44025</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>38</v>
+      <c r="A15" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>39</v>
+      <c r="C15" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="F15" s="8" t="n">
         <v>44025</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2845,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.85"/>
@@ -2747,13 +2855,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2761,12 +2869,12 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2791,24 +2899,24 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2816,24 +2924,24 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2855,13 +2963,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:F537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.33"/>
@@ -2871,249 +2979,249 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,61 +3229,75 @@
     </row>
     <row r="37" customFormat="false" ht="187" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="19" t="n">
+        <v>44027</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3241,11 +3363,11 @@
       <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="85.33"/>
@@ -3253,337 +3375,337 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>28</v>
+      <c r="C1" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="19" t="n">
+        <v>107</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773075</v>
+        <v>44027.2608468763</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="19" t="n">
+        <v>108</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773078</v>
+        <v>44027.2608468767</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="19" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773079</v>
+        <v>44027.2608468768</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="19" t="n">
+        <v>110</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.912277308</v>
+        <v>44027.2608468769</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="19" t="n">
+        <v>114</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773082</v>
+        <v>44027.260846877</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="20" t="n">
+      <c r="C13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="23" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773082</v>
+        <v>44027.2608468771</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="19" t="n">
+        <v>120</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773084</v>
+        <v>44027.2608468772</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="19" t="n">
+        <v>124</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773085</v>
+        <v>44027.2608468773</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="19" t="n">
+        <v>127</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773086</v>
+        <v>44027.2608468774</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="19" t="n">
+        <v>130</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773087</v>
+        <v>44027.2608468775</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="19" t="n">
+        <v>131</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773088</v>
+        <v>44027.2608468776</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="21" t="n">
+        <v>134</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="24" t="n">
         <f aca="true">NOW()</f>
-        <v>44025.9122773089</v>
+        <v>44027.2608468777</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="20" t="n">
+        <v>137</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="23" t="n">
         <v>44022</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="20" t="n">
+        <v>139</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="23" t="n">
         <v>44022</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3647,7 +3769,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="108"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
@@ -3658,13 +3780,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -3672,585 +3794,585 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>284</v>
+        <v>45</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>288</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4284,7 +4406,7 @@
       <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.82"/>
@@ -4294,13 +4416,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -4308,7 +4430,7 @@
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
+++ b/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sorting" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="378">
   <si>
     <t xml:space="preserve">Questions</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t xml:space="preserve">There seem to be having a better way , try learn it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IntegerBreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/integer-break/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take care of the base cases, like for 2, 3 if they are precalculated, Don’t rush prove it </t>
   </si>
   <si>
     <t xml:space="preserve">Find the log base 2  value of a number</t>
@@ -1276,6 +1285,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FFE26B0A"/>
       <name val="Calibri"/>
@@ -1295,14 +1312,6 @@
       <color rgb="FF99A8BA"/>
       <name val="JetBrains Mono"/>
       <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1457,19 +1466,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,15 +1486,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1505,7 +1514,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1816,262 +1825,262 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2099,16 +2108,16 @@
   <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2143,17 +2152,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>352</v>
+      <c r="D1" s="16" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,22 +2201,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2241,22 +2250,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2289,22 +2298,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -2312,17 +2321,17 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2356,16 +2365,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2397,16 +2406,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2441,61 +2450,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>358</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>363</v>
+      <c r="A17" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="E17" s="19" t="n">
+        <v>361</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="14" t="n">
         <v>44027</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B500" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2532,12 +2541,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2672,33 +2681,33 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>23</v>
@@ -2706,7 +2715,7 @@
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>23</v>
@@ -2714,20 +2723,20 @@
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2752,8 +2761,8 @@
   </sheetPr>
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2812,6 +2821,23 @@
       </c>
       <c r="F15" s="8" t="n">
         <v>44025</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>44027</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,22 +2880,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,39 +2935,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2991,7 @@
   </sheetPr>
   <dimension ref="A1:F537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -2978,250 +3004,250 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>50</v>
+      <c r="E1" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,69 +3255,69 @@
     </row>
     <row r="37" customFormat="false" ht="187" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>94</v>
+        <v>54</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="15" t="s">
-        <v>100</v>
+      <c r="C43" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="s">
-        <v>101</v>
+      <c r="A48" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="19" t="n">
+        <v>48</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="14" t="n">
         <v>44027</v>
       </c>
     </row>
@@ -3374,255 +3400,255 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>103</v>
+      <c r="E1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E7" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468763</v>
+        <v>44027.3546729752</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E8" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468767</v>
+        <v>44027.3546729755</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="E9" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468768</v>
+        <v>44027.3546729756</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E10" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468769</v>
+        <v>44027.3546729757</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E12" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.260846877</v>
+        <v>44027.3546729758</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="C13" s="21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E13" s="23" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468771</v>
+        <v>44027.3546729759</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E15" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468772</v>
+        <v>44027.3546729761</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E18" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468773</v>
+        <v>44027.3546729762</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E19" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468774</v>
+        <v>44027.3546729763</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E21" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468775</v>
+        <v>44027.3546729764</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E22" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468776</v>
+        <v>44027.3546729765</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E26" s="24" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.2608468777</v>
+        <v>44027.3546729766</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E36" s="23" t="n">
         <v>44022</v>
@@ -3630,10 +3656,10 @@
     </row>
     <row r="37" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E37" s="23" t="n">
         <v>44022</v>
@@ -3641,66 +3667,66 @@
     </row>
     <row r="38" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,600 +3805,600 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4415,22 +4441,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
+++ b/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Sorting" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,12 +60,145 @@
         </r>
       </text>
     </comment>
+    <comment ref="E18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF518843"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">I could able to think straight up for the solution.
+t\Learnings:
+&gt; when comparing , make sure you use current with min or max to avoid mistakes
+for example salary[i]</t>
+        </r>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF66AC54"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">&lt;min or something like salary[i] &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF518843"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">max
+&gt; when doing arithmatic expression make sure  you use brackets to deal with crazy outcomes.
+&gt; Double results are crazy for example
+&gt; [48000,59000,99000,13000,78000,45000,31000,17000,39000,37000,93000,77000,33000,28000,4000,54000,67000,6000,1000,11000] with output 41111.00000 , but expected is 41111.11111. Interestingly the division produced is with 00000 and by type casting to doubles solved it.
+&gt; Another interesting observation :
+&gt;
+Runtime: 10 ms, faster than 6.00% of Java online submissions for Average Salary Excluding the Minimum and Maximum Salary.  for code
+public double average(int[] salary) {
+int sum=0;
+int min=salary[0],max=salary[0];
+for(int i=0;i</t>
+        </r>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF66AC54"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">&lt;salary.length</t>
+        </r>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF518843"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">;i++){
+if(salary[i]</t>
+        </r>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF66AC54"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">&lt;min</t>
+        </r>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF518843"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">){
+min=salary[i];
+}
+if(salary[i]&gt;max){
+max=salary[i];
+}
+sum+=salary[i];
+}
+System.out.println(min+"  "+ max );
+return (double)(sum-(min+max))/(salary.length-2);
+}
+}
+But  for this code
+class Solution {
+public double average(int[] salary) {
+Arrays.sort(salary);
+double sum = 0;
+for(int i=1; i</t>
+        </r>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF66AC54"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">&lt;salary.length-1</t>
+        </r>
+        <r>
+          <rPr>
+            <i val="true"/>
+            <sz val="13"/>
+            <color rgb="FF518843"/>
+            <rFont val="JetBrains Mono"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">; i++){
+sum += (double) salary[i];
+}
+return sum/(salary.length-2);
+}
+}
+Runtime: 10 ms, faster than 100% of Java online submissions for Average Salary Excluding the Minimum and Maximum Salary.
+Did we not do a faster algo as o(n) but this o(n)+o(nlogn) is faster ?
+Learning is compiler and do some crazy optimization; thus just because o(n) is faster than o(n)+o(nlogn)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="379">
   <si>
     <t xml:space="preserve">Questions</t>
   </si>
@@ -1182,6 +1315,9 @@
     <t xml:space="preserve">https://leetcode.com/problems/lucky-numbers-in-a-matrix/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://leetcode.com/problems/average-salary-excluding-the-minimum-and-maximum-salary/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Design Bloom Filter</t>
   </si>
   <si>
@@ -1221,10 +1357,10 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy\ hh:mm"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy\ hh:mm"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1308,12 +1444,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF99A8BA"/>
-      <name val="JetBrains Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1326,6 +1456,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="13"/>
+      <color rgb="FF518843"/>
+      <name val="JetBrains Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="13"/>
+      <color rgb="FF66AC54"/>
+      <name val="JetBrains Mono"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="28"/>
@@ -1470,10 +1614,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1490,10 +1630,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1502,7 +1638,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1510,7 +1646,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1518,11 +1654,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1549,7 +1693,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF66AC54"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1610,7 +1754,7 @@
       <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.83"/>
@@ -1818,23 +1962,23 @@
       <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2105,19 +2249,19 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2143,7 +2287,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="123.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
@@ -2152,16 +2296,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>355</v>
       </c>
     </row>
@@ -2192,7 +2336,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.17"/>
@@ -2201,16 +2345,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2241,7 +2385,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
@@ -2250,16 +2394,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2290,7 +2434,7 @@
       <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
@@ -2298,16 +2442,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2356,7 +2500,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.16"/>
@@ -2365,16 +2509,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2400,22 +2544,22 @@
       <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2437,34 +2581,34 @@
   </sheetPr>
   <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="72.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="111.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>360</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -2478,7 +2622,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>364</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -2489,7 +2633,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="6" t="s">
         <v>366</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -2498,7 +2642,18 @@
       <c r="C17" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="8" t="n">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="26" t="n">
         <v>44027</v>
       </c>
     </row>
@@ -2511,6 +2666,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/"/>
     <hyperlink ref="D2" r:id="rId3" display="array/FindAllNumbersDisapearedInAnArray.java"/>
+    <hyperlink ref="C18" r:id="rId4" display="https://leetcode.com/problems/average-salary-excluding-the-minimum-and-maximum-salary/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2519,7 +2675,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2534,19 +2690,19 @@
       <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2727,7 @@
       <selection pane="topLeft" activeCell="A200" activeCellId="0" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.52"/>
@@ -2649,7 +2805,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2672,7 +2828,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
@@ -2681,62 +2837,62 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>370</v>
+      <c r="A2" s="24" t="s">
+        <v>371</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>372</v>
+      <c r="A3" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>373</v>
+      <c r="A4" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
-        <v>374</v>
+      <c r="A5" s="24" t="s">
+        <v>375</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2761,11 +2917,11 @@
   </sheetPr>
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="18.8"/>
@@ -2836,7 +2992,7 @@
       <c r="E16" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="8" t="n">
         <v>44027</v>
       </c>
     </row>
@@ -2871,7 +3027,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.85"/>
@@ -2880,16 +3036,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2925,7 +3081,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
@@ -2935,16 +3091,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2955,7 +3111,7 @@
       <c r="B3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2995,7 +3151,7 @@
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.33"/>
@@ -3004,19 +3160,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3281,7 +3437,7 @@
       <c r="B40" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -3303,12 +3459,12 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -3317,7 +3473,7 @@
       <c r="C48" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="14" t="n">
+      <c r="F48" s="8" t="n">
         <v>44027</v>
       </c>
     </row>
@@ -3389,7 +3545,7 @@
       <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.33"/>
@@ -3400,25 +3556,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3431,7 +3587,7 @@
       <c r="A6" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3439,48 +3595,48 @@
       <c r="A7" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729752</v>
+        <v>44027.3757478433</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729755</v>
+        <v>44027.3757478436</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729756</v>
+        <v>44027.3757478438</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729757</v>
+        <v>44027.3757478438</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,12 +3651,12 @@
       <c r="A12" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729758</v>
+        <v>44027.375747844</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,12 +3666,12 @@
       <c r="B13" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="23" t="n">
+      <c r="E13" s="21" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729759</v>
+        <v>44027.3757478441</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,28 +3681,28 @@
       <c r="B14" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729761</v>
+        <v>44027.3757478442</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3554,7 +3710,7 @@
       <c r="A17" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3562,12 +3718,12 @@
       <c r="A18" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="22" t="n">
+      <c r="E18" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729762</v>
+        <v>44027.3757478443</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>129</v>
@@ -3577,45 +3733,45 @@
       <c r="A19" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="22" t="n">
+      <c r="E19" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729763</v>
+        <v>44027.3757478444</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="22" t="n">
+      <c r="E21" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729764</v>
+        <v>44027.3757478446</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="22" t="n">
+      <c r="E22" s="20" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729765</v>
+        <v>44027.3757478446</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,12 +3788,12 @@
       <c r="A26" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="24" t="n">
+      <c r="E26" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44027.3546729766</v>
+        <v>44027.3757478448</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>139</v>
@@ -3647,10 +3803,10 @@
       <c r="A36" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="23" t="n">
+      <c r="E36" s="21" t="n">
         <v>44022</v>
       </c>
     </row>
@@ -3658,10 +3814,10 @@
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="23" t="n">
+      <c r="E37" s="21" t="n">
         <v>44022</v>
       </c>
     </row>
@@ -3669,7 +3825,7 @@
       <c r="A38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="19" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3677,7 +3833,7 @@
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="19" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3685,7 +3841,7 @@
       <c r="A40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="19" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3693,7 +3849,7 @@
       <c r="A41" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="19" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3701,7 +3857,7 @@
       <c r="A42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3709,7 +3865,7 @@
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="19" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3717,7 +3873,7 @@
       <c r="A44" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="19" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3725,7 +3881,7 @@
       <c r="A45" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="19" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3795,7 +3951,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="108"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
@@ -3805,16 +3961,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4389,7 +4545,7 @@
       <c r="B83" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="23" t="s">
         <v>291</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -4432,7 +4588,7 @@
       <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.82"/>
@@ -4441,16 +4597,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
+++ b/src/main/java/com/aneonoir/dsalgo/practise/practisebook.xlsx
@@ -1,37 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ab670958/IdeaProjects/my-coding-practise/src/main/java/com/aneonoir/dsalgo/practise/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBCB703-E87F-2B46-81AF-F275A7C6FD44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sorting" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Binary Search" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Dynamic Programming" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Math" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="HashMap" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="String" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="LinkedList" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Tree" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Trie" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Heap" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Two Pointer" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="BitWise" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Graph" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Greedy" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Stack" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Queue" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Union Find" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Arrays" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Low Level Design Questions" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="High Level Design Question" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="backtracking" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Sorting" sheetId="1" r:id="rId1"/>
+    <sheet name="Binary Search" sheetId="2" r:id="rId2"/>
+    <sheet name="Dynamic Programming" sheetId="3" r:id="rId3"/>
+    <sheet name="Math" sheetId="4" r:id="rId4"/>
+    <sheet name="HashMap" sheetId="5" r:id="rId5"/>
+    <sheet name="String" sheetId="6" r:id="rId6"/>
+    <sheet name="LinkedList" sheetId="7" r:id="rId7"/>
+    <sheet name="Tree" sheetId="8" r:id="rId8"/>
+    <sheet name="Trie" sheetId="9" r:id="rId9"/>
+    <sheet name="Heap" sheetId="10" r:id="rId10"/>
+    <sheet name="Two Pointer" sheetId="11" r:id="rId11"/>
+    <sheet name="BitWise" sheetId="12" r:id="rId12"/>
+    <sheet name="Graph" sheetId="13" r:id="rId13"/>
+    <sheet name="Greedy" sheetId="14" r:id="rId14"/>
+    <sheet name="Stack" sheetId="15" r:id="rId15"/>
+    <sheet name="Queue" sheetId="16" r:id="rId16"/>
+    <sheet name="Union Find" sheetId="17" r:id="rId17"/>
+    <sheet name="Arrays" sheetId="18" r:id="rId18"/>
+    <sheet name="Low Level Design Questions" sheetId="19" r:id="rId19"/>
+    <sheet name="High Level Design Question" sheetId="20" r:id="rId20"/>
+    <sheet name="backtracking" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -39,13 +52,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="E17" authorId="0">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,40 +73,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000002000000}">
       <text>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF518843"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
-          <t xml:space="preserve">I could able to think straight up for the solution.
+          <t>I could able to think straight up for the solution.
 t\Learnings:
 &gt; when comparing , make sure you use current with min or max to avoid mistakes
 for example salary[i]</t>
         </r>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF66AC54"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
           <t xml:space="preserve">&lt;min or something like salary[i] &gt; </t>
         </r>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF518843"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
-          <t xml:space="preserve">max
+          <t>max
 &gt; when doing arithmatic expression make sure  you use brackets to deal with crazy outcomes.
 &gt; Double results are crazy for example
 &gt; [48000,59000,99000,13000,78000,45000,31000,17000,39000,37000,93000,77000,33000,28000,4000,54000,67000,6000,1000,11000] with output 41111.00000 , but expected is 41111.11111. Interestingly the division produced is with 00000 and by type casting to doubles solved it.
@@ -107,44 +117,40 @@
         </r>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF66AC54"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
-          <t xml:space="preserve">&lt;salary.length</t>
+          <t>&lt;salary.length</t>
         </r>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF518843"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
-          <t xml:space="preserve">;i++){
+          <t>;i++){
 if(salary[i]</t>
         </r>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF66AC54"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
-          <t xml:space="preserve">&lt;min</t>
+          <t>&lt;min</t>
         </r>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF518843"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
-          <t xml:space="preserve">){
+          <t>){
 min=salary[i];
 }
 if(salary[i]&gt;max){
@@ -165,23 +171,21 @@
         </r>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF66AC54"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
-          <t xml:space="preserve">&lt;salary.length-1</t>
+          <t>&lt;salary.length-1</t>
         </r>
         <r>
           <rPr>
-            <i val="true"/>
+            <i/>
             <sz val="13"/>
             <color rgb="FF518843"/>
             <rFont val="JetBrains Mono"/>
-            <family val="0"/>
           </rPr>
-          <t xml:space="preserve">; i++){
+          <t>; i++){
 sum += (double) salary[i];
 }
 return sum/(salary.length-2);
@@ -198,51 +202,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="379">
-  <si>
-    <t xml:space="preserve">Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link/Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local File</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="382">
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Link/Reference</t>
+  </si>
+  <si>
+    <t>Local File</t>
   </si>
   <si>
     <t xml:space="preserve">Implement a bubble sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a bubble sort which gives O(n) in the best case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file://localhost/Users/ab670958/Documents/ FORM12BB.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement bubble sort recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Selection Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Selection Sort Recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Selection Sort stable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Selection Sort of A linkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement couting Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement inserttion sort</t>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Implement a bubble sort which gives O(n) in the best case</t>
+  </si>
+  <si>
+    <t>file://localhost/Users/ab670958/Documents/ FORM12BB.pdf</t>
+  </si>
+  <si>
+    <t>Implement bubble sort recursively</t>
+  </si>
+  <si>
+    <t>Implement Selection Sort</t>
+  </si>
+  <si>
+    <t>Implement Selection Sort Recursively</t>
+  </si>
+  <si>
+    <t>Implement Selection Sort stable</t>
+  </si>
+  <si>
+    <t>Implement Selection Sort of A linkedList</t>
+  </si>
+  <si>
+    <t>Implement couting Sort</t>
+  </si>
+  <si>
+    <t>Implement inserttion sort</t>
   </si>
   <si>
     <t xml:space="preserve">Implment quick sort </t>
@@ -251,34 +255,34 @@
     <t xml:space="preserve">Implement Quick sort Stable </t>
   </si>
   <si>
-    <t xml:space="preserve">Implmenent quick sort Method 1 Iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement quick sort method 2 recurioon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radix sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sorted Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/merge-sorted-array/</t>
+    <t>Implmenent quick sort Method 1 Iterative</t>
+  </si>
+  <si>
+    <t>Implement quick sort method 2 recurioon</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort iterative</t>
+  </si>
+  <si>
+    <t>Radix sort</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array/</t>
   </si>
   <si>
     <t xml:space="preserve">Follow up do better, Don't use any sorting algo. Rather try do it in place </t>
   </si>
   <si>
-    <t xml:space="preserve">CanMakeArithmeticProgressionFromSequence</t>
+    <t>CanMakeArithmeticProgressionFromSequence</t>
   </si>
   <si>
     <t xml:space="preserve">* link: https://leetcode.com/problems/can-make-arithmetic-progression-from-sequence/
@@ -288,31 +292,31 @@
     <t xml:space="preserve">Do reach here </t>
   </si>
   <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Binary Search Recursion Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Binary Search Iterative Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implmenet binary search LinkedList Recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Binary search iteraive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RangeSumQuery2DImmutable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium</t>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Implement Binary Search Recursion Array</t>
+  </si>
+  <si>
+    <t>Implement Binary Search Iterative Array</t>
+  </si>
+  <si>
+    <t>Implmenet binary search LinkedList Recursion</t>
+  </si>
+  <si>
+    <t>Implement Binary search iteraive</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>RangeSumQuery2DImmutable</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
   <si>
     <t xml:space="preserve"> https://leetcode.com/problems/range-sum-query-2d-immutable/</t>
@@ -321,37 +325,37 @@
     <t xml:space="preserve">Null handling, dynamic programming, there seems to be even faster way of calculating, than the used for loop. Check it out. </t>
   </si>
   <si>
-    <t xml:space="preserve">Range Sum Query - Immutable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/range-sum-query-immutable/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There seem to be having a better way , try learn it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntegerBreak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/integer-break/</t>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-immutable/</t>
+  </si>
+  <si>
+    <t>There seem to be having a better way , try learn it.</t>
+  </si>
+  <si>
+    <t>IntegerBreak</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-break/</t>
   </si>
   <si>
     <t xml:space="preserve">Take care of the base cases, like for 2, 3 if they are precalculated, Don’t rush prove it </t>
   </si>
   <si>
-    <t xml:space="preserve">Find the log base 2  value of a number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Anagrams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/group-anagrams/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hash/GroupAnagrams.java</t>
+    <t>Find the log base 2  value of a number</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>hash/GroupAnagrams.java</t>
   </si>
   <si>
     <t xml:space="preserve">HashMaps equals do work,Note you can use Bitwise for this code, can you do it ? </t>
@@ -360,127 +364,127 @@
     <t xml:space="preserve">Reach here </t>
   </si>
   <si>
-    <t xml:space="preserve">Learning:</t>
+    <t>Learning:</t>
   </si>
   <si>
     <t xml:space="preserve">Warm up </t>
   </si>
   <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p171896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p184030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p172267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p143825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p162477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p103895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p115863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p199216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p138183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p172063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p161056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p147483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p108853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p163411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p130896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p168564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p197720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p130781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p137729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistakes, substring the end index is always excluded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p174148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p174254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchout for StringIndexOutOfBoundsException</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p144623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what if index is -negative ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p139075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p139076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p132118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learnt concat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p194786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p196652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p142247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p151940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p105745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p110141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p151359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p141494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p141736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistakes:
+    <t>https://codingbat.com/prob/p171896</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p184030</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p172267</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p143825</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p162477</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p103895</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p115863</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p199216</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p138183</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p172063</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p161056</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p147483</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p108853</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p163411</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p130896</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p168564</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p197720</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p130781</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p137729</t>
+  </si>
+  <si>
+    <t>Mistakes, substring the end index is always excluded</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p174148</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p174254</t>
+  </si>
+  <si>
+    <t>Watchout for StringIndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p144623</t>
+  </si>
+  <si>
+    <t>what if index is -negative ?</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p139075</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p139076</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p132118</t>
+  </si>
+  <si>
+    <t>Learnt concat</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p194786</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p196652</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p142247</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p151940</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p105745</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p110141</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p151359</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p141494</t>
+  </si>
+  <si>
+    <t>https://codingbat.com/prob/p141736</t>
+  </si>
+  <si>
+    <t>Mistakes:
 for(int i=0;i&lt;str.length();i+=2){ // i+=2 is wrong
     if(str.substring(i,i+2).equals("is")) isCount++;
   }
@@ -493,7 +497,7 @@
   }</t>
   </si>
   <si>
-    <t xml:space="preserve">https://codingbat.com/prob/p197890</t>
+    <t>https://codingbat.com/prob/p197890</t>
   </si>
   <si>
     <t xml:space="preserve">Given String "23+423-42+332" extract all the numbers </t>
@@ -502,103 +506,103 @@
     <t xml:space="preserve">encode decode string . </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.codewars.com/kata/5d98b6b38b0f6c001a461198/train/java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strings/Binaries.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word a10n (abbreviation)</t>
+    <t>https://www.codewars.com/kata/5d98b6b38b0f6c001a461198/train/java</t>
+  </si>
+  <si>
+    <t>strings/Binaries.java</t>
+  </si>
+  <si>
+    <t>Word a10n (abbreviation)</t>
   </si>
   <si>
     <t xml:space="preserve">warm up </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.codewars.com/kata/5375f921003bf62192000746/train/java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strings/Abbriviation.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.codewars.com/kata/5e2733f0e7432a000fb5ecc4/train/java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/generate-parentheses/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
+    <t>https://www.codewars.com/kata/5375f921003bf62192000746/train/java</t>
+  </si>
+  <si>
+    <t>strings/Abbriviation.java</t>
+  </si>
+  <si>
+    <t>https://www.codewars.com/kata/5e2733f0e7432a000fb5ecc4/train/java</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t xml:space="preserve">Implemement Single Linked List Using </t>
   </si>
   <si>
-    <t xml:space="preserve">Print linked list in reverse  elements Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print linked list in reverse elements Recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print linked list elements Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print linked list elements Recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node at a given index in linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/node-at-a-given-index-in-linked-list/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the tail of the LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linked List Insertion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/linked-list-insertion-1587115620/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count the number of nodes in Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/count-nodes-of-linked-list/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count the number of nodes in Linked List Recursive</t>
+    <t>Print linked list in reverse  elements Iteratively</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1</t>
+  </si>
+  <si>
+    <t>Print linked list in reverse elements Recursively</t>
+  </si>
+  <si>
+    <t>Print linked list elements Iteratively</t>
+  </si>
+  <si>
+    <t>Print linked list elements Recursively</t>
+  </si>
+  <si>
+    <t>Node at a given index in linked list</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/node-at-a-given-index-in-linked-list/1</t>
+  </si>
+  <si>
+    <t>Find the tail of the LinkedList</t>
+  </si>
+  <si>
+    <t>Warm Up</t>
+  </si>
+  <si>
+    <t>Linked List Insertion</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/linked-list-insertion-1587115620/1</t>
+  </si>
+  <si>
+    <t>Count the number of nodes in Linked List</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-nodes-of-linked-list/1</t>
+  </si>
+  <si>
+    <t>Count the number of nodes in Linked List Recursive</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Linked List Length Even or Odd?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1</t>
+    <t>Linked List Length Even or Odd?</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1</t>
   </si>
   <si>
     <t xml:space="preserve">Linked List Length Even or Odd? Can you do it using without using a counter variable ? </t>
   </si>
   <si>
-    <t xml:space="preserve">Linked List Length Even or Odd? Can you do it using recursion No additional parameter</t>
+    <t>Linked List Length Even or Odd? Can you do it using recursion No additional parameter</t>
   </si>
   <si>
     <t xml:space="preserve">Identical Linked Lists </t>
   </si>
   <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/identical-linked-lists/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: This pattern of code where I am dealing with two items I struggle , Need to get rid of the fear</t>
+    <t>https://practice.geeksforgeeks.org/problems/identical-linked-lists/1</t>
+  </si>
+  <si>
+    <t>Note: This pattern of code where I am dealing with two items I struggle , Need to get rid of the fear</t>
   </si>
   <si>
     <t xml:space="preserve">Identical Linked Lists  Can you do it using recursion ? </t>
@@ -607,487 +611,487 @@
     <t xml:space="preserve">Find the last n elements of linked List Using Stack </t>
   </si>
   <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the last n elements of linked List using recursion</t>
+    <t>https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1</t>
+  </si>
+  <si>
+    <t>Find the last n elements of linked List using recursion</t>
   </si>
   <si>
     <t xml:space="preserve">Find the last n elements of linked List without using stack </t>
   </si>
   <si>
-    <t xml:space="preserve">Find all Even nodes in linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle element in the linked list</t>
+    <t>Find all Even nodes in linked List</t>
+  </si>
+  <si>
+    <t>Find the middle element in the linked list</t>
   </si>
   <si>
     <t xml:space="preserve">Check if linked list is circular </t>
   </si>
   <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/circular-linked-list/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you do It without a true while loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary Number in a Linked List to Integer    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Node in a Linked List    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle of the Linked List    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/middle-of-the-linked-list/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Linked List    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/reverse-linked-list/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Two Sorted Lists    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/merge-two-sorted-lists/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates from Sorted List    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linked List Cycle    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/linked-list-cycle/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection of Two Linked Lists    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palindrome Linked List    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/palindrome-linked-list/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Linked List Elements    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/remove-linked-list-elements/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first leaf node in the Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of nodes in a binary tree Iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of nodes in a binary tree recursive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum Element in Binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.codewars.com/kata/57e5279b7cf1aea5cf000359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maxmum Element in Binary Tree Iterative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in binary Tree Recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in binary Tree Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert An Element in the binary tree Where ever you want , Use Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 5</t>
+    <t>https://practice.geeksforgeeks.org/problems/circular-linked-list/1</t>
+  </si>
+  <si>
+    <t>Can you do It without a true while loop</t>
+  </si>
+  <si>
+    <t>Convert Binary Number in a Linked List to Integer    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer/</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>Reverse Linked List    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>Linked List Cycle    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/</t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements    </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-linked-list-elements/</t>
+  </si>
+  <si>
+    <t>Find the first leaf node in the Binary tree</t>
+  </si>
+  <si>
+    <t>Find the number of nodes in a binary tree Iterative</t>
+  </si>
+  <si>
+    <t>Find the number of nodes in a binary tree recursive</t>
+  </si>
+  <si>
+    <t>Find Maximum Element in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.codewars.com/kata/57e5279b7cf1aea5cf000359</t>
+  </si>
+  <si>
+    <t>CIQ,Problem1</t>
+  </si>
+  <si>
+    <t>Find Maxmum Element in Binary Tree Iterative</t>
+  </si>
+  <si>
+    <t>CIQ,Problem2</t>
+  </si>
+  <si>
+    <t>Search an element in binary Tree Recursively</t>
+  </si>
+  <si>
+    <t>CIQ,Problem3</t>
+  </si>
+  <si>
+    <t>Search an element in binary Tree Iteratively</t>
+  </si>
+  <si>
+    <t>CIQ,Problem4</t>
+  </si>
+  <si>
+    <t>Insert An Element in the binary tree Where ever you want , Use Level Order traversal</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 5</t>
   </si>
   <si>
     <t xml:space="preserve">Find the size of binary tree, Recursively </t>
   </si>
   <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the size of binary tree, Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print the level Order traversal in reverse order, 1,2,3,4,5,6,7 ( level order, left to right), print it 4,5,6,7,2,3,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 8</t>
+    <t>https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>CIQ,problem 6</t>
+  </si>
+  <si>
+    <t>Find the size of binary tree, Iteratively</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 7</t>
+  </si>
+  <si>
+    <t>Print the level Order traversal in reverse order, 1,2,3,4,5,6,7 ( level order, left to right), print it 4,5,6,7,2,3,1</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 8</t>
   </si>
   <si>
     <t xml:space="preserve">Delete the Tree </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the height of the binary tree using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the height of the binary tree, without recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the deepest node in the binary Tree, using Iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findt the deepest node in the binary tree, using recusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a given node from binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 13</t>
+    <t>CIQ,Problem 9</t>
+  </si>
+  <si>
+    <t>Find the height of the binary tree using recursion</t>
+  </si>
+  <si>
+    <t>Find the height of the binary tree, without recursion</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 11</t>
+  </si>
+  <si>
+    <t>Find the deepest node in the binary Tree, using Iteratively</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 12</t>
+  </si>
+  <si>
+    <t>Findt the deepest node in the binary tree, using recusion</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Delete a given node from binary tree</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 13</t>
   </si>
   <si>
     <t xml:space="preserve">Find the number of leaves in binary tree without recursion </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 14</t>
+    <t>CIQ,Problem 14</t>
   </si>
   <si>
     <t xml:space="preserve">Find the number of leaves in binary tree using recursion </t>
   </si>
   <si>
-    <t xml:space="preserve">self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of full nodes in the binary tree without using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of FullNodes in the binary Tree with recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of half nodes in the binary tree without recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ, Problem 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the number of half nodes in the binary tree with recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given two binary Tree, return true if they are structurally equal recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ, Problem 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given two binary Tree, return true if they are structurally equal iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the diameter of binary tree. The diameter of a tree is the nuumber of nodes on the longest path between two leaes in the tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ, Problem 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the level that has the maximum sum in the binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ, Problem 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pring all the root to leave paths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the root to leaeves path iteratively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given  a sum check if a path exists from root to leave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the sum of all elements in binary Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 22</t>
+    <t>self</t>
+  </si>
+  <si>
+    <t>Find the number of full nodes in the binary tree without using recursion</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 15</t>
+  </si>
+  <si>
+    <t>Find the number of FullNodes in the binary Tree with recursion</t>
+  </si>
+  <si>
+    <t>Find the number of half nodes in the binary tree without recursion</t>
+  </si>
+  <si>
+    <t>CIQ, Problem 16</t>
+  </si>
+  <si>
+    <t>Find the number of half nodes in the binary tree with recursion</t>
+  </si>
+  <si>
+    <t>Slef</t>
+  </si>
+  <si>
+    <t>Given two binary Tree, return true if they are structurally equal recursively</t>
+  </si>
+  <si>
+    <t>CIQ, Problem 17</t>
+  </si>
+  <si>
+    <t>Given two binary Tree, return true if they are structurally equal iteratively</t>
+  </si>
+  <si>
+    <t>Find the diameter of binary tree. The diameter of a tree is the nuumber of nodes on the longest path between two leaes in the tree</t>
+  </si>
+  <si>
+    <t>CIQ, Problem 18</t>
+  </si>
+  <si>
+    <t>Find the level that has the maximum sum in the binary tree</t>
+  </si>
+  <si>
+    <t>CIQ, Problem 19</t>
+  </si>
+  <si>
+    <t>Pring all the root to leave paths</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 20</t>
+  </si>
+  <si>
+    <t>Print all the root to leaeves path iteratively</t>
+  </si>
+  <si>
+    <t>Given  a sum check if a path exists from root to leave</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 21</t>
+  </si>
+  <si>
+    <t>Find the sum of all elements in binary Tree</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 22</t>
   </si>
   <si>
     <t xml:space="preserve">Find the sum of all the elements in the binary tree iteratively </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Prolblem 23</t>
+    <t>CIQ,Prolblem 23</t>
   </si>
   <si>
     <t xml:space="preserve">Given a tree return the mirror </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 24</t>
+    <t>CIQ,Problem 24</t>
   </si>
   <si>
     <t xml:space="preserve">Given two trees check if they are mirror of each other </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 25</t>
+    <t>CIQ,Problem 25</t>
   </si>
   <si>
     <t xml:space="preserve">Give an alrotithn for constructing a tree from given inorder and preorder traversal </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two traversal sequences given , can a tree be constructed uniquely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all ansestor of a given node, recursively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all ancestor of a given node, iteratively &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA of two nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,probem 29</t>
+    <t>CIQ,problem 26</t>
+  </si>
+  <si>
+    <t>Two traversal sequences given , can a tree be constructed uniquely</t>
+  </si>
+  <si>
+    <t>CIQ,problem 27</t>
+  </si>
+  <si>
+    <t>Print all ansestor of a given node, recursively</t>
+  </si>
+  <si>
+    <t>CIQ,problem 28</t>
+  </si>
+  <si>
+    <t>Print all ancestor of a given node, iteratively &gt;</t>
+  </si>
+  <si>
+    <t>Find LCA of two nodes</t>
+  </si>
+  <si>
+    <t>CIQ,probem 29</t>
   </si>
   <si>
     <t xml:space="preserve">Zigzag Tree Traversal </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ, problem 30</t>
+    <t>CIQ, problem 30</t>
   </si>
   <si>
     <t xml:space="preserve">Print vertical sum </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 31</t>
+    <t>CIQ,problem 31</t>
   </si>
   <si>
     <t xml:space="preserve">How many different binary tree s are possible with n nodes. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given preorder traversal with 'L' as leaves and 'I' as internal nodes and each node has either 0 or 2 children . Construct the tree, Example inpt ILILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 33</t>
+    <t>CIQ,Problem 32</t>
+  </si>
+  <si>
+    <t>Given preorder traversal with 'L' as leaves and 'I' as internal nodes and each node has either 0 or 2 children . Construct the tree, Example inpt ILILL</t>
+  </si>
+  <si>
+    <t>CIQ,problem 33</t>
   </si>
   <si>
     <t xml:space="preserve">Given a  binary tree with three pointers left, right and nextSibling) give an algorithm for filling the nextsibling pointers assuming they are Null Initially </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variation of 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a tree, give an algorithm for finding the sum of all the elements of the tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 36</t>
+    <t>CIQ,problem 34</t>
+  </si>
+  <si>
+    <t>Variation of 34</t>
+  </si>
+  <si>
+    <t>CIQ,problem 35</t>
+  </si>
+  <si>
+    <t>Given a tree, give an algorithm for finding the sum of all the elements of the tree</t>
+  </si>
+  <si>
+    <t>CIQ,problem 36</t>
   </si>
   <si>
     <t xml:space="preserve">For a 4-nary tree , wha tis the maxium possible height with 100 nodes ? Assume height of a single node is 0 </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a 4-nary tree what is the minimum possible height with n-nodes ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 38</t>
+    <t>CIQ,problem 37</t>
+  </si>
+  <si>
+    <t>For a 4-nary tree what is the minimum possible height with n-nodes ?</t>
+  </si>
+  <si>
+    <t>CIQ,problem 38</t>
   </si>
   <si>
     <t xml:space="preserve">Given a node in the generic tree, given an algorithm for couting the number of siblings for that node </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 39</t>
+    <t>CIQ,problem 39</t>
   </si>
   <si>
     <t xml:space="preserve">Given a node in the generic tree, give an algorith to count the number of children for that nodes. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a parent array P , where p[i] indicates the parent of ith node in the tree ,. Give an algorithm mfor findig the height or depth of tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 41</t>
+    <t>CIQ,problem 40</t>
+  </si>
+  <si>
+    <t>Given a parent array P , where p[i] indicates the parent of ith node in the tree ,. Give an algorithm mfor findig the height or depth of tree</t>
+  </si>
+  <si>
+    <t>CIQ,problem 41</t>
   </si>
   <si>
     <t xml:space="preserve">Given two trees how do we check wheter the trees are isomorphic to each other or not ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 42</t>
+    <t>CIQ,problem 42</t>
   </si>
   <si>
     <t xml:space="preserve">Given two trees how do we chck wheter they are quasi-isomorthpic to each other or not ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 43</t>
+    <t>CIQ,problem 43</t>
   </si>
   <si>
     <t xml:space="preserve">A full k-ary tree is a tree where each node has either 0 or k children . Given an array which contains the preorder traversal of full k-ary tree, given an algorithm for constructing the full k-ary tree. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,problem 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do some implementations of Threaded binary tree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a given binary tree( not threaded) how do we find the preorder successor ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a given binary tree not threaded how do we find the inorder successor ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build an expression tree from postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary search tree implementation</t>
+    <t>CIQ,problem 44</t>
+  </si>
+  <si>
+    <t>Do some implementations of Threaded binary tree.</t>
+  </si>
+  <si>
+    <t>For a given binary tree( not threaded) how do we find the preorder successor ?</t>
+  </si>
+  <si>
+    <t>CIQ,problem 45</t>
+  </si>
+  <si>
+    <t>For a given binary tree not threaded how do we find the inorder successor ?</t>
+  </si>
+  <si>
+    <t>CIQ,problem 46</t>
+  </si>
+  <si>
+    <t>Build an expression tree from postfix expression</t>
+  </si>
+  <si>
+    <t>Binary search tree implementation</t>
   </si>
   <si>
     <t xml:space="preserve">Gien pointers to two nodes in a binary search tree, find the lowest common ancestor . Assume that both valuese already exists I the tree </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,:problem 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Give an algorithm for finding the shortest path between two nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,:problem 48</t>
+    <t>CIQ,:problem 47</t>
+  </si>
+  <si>
+    <t>Give an algorithm for finding the shortest path between two nodes in a BST</t>
+  </si>
+  <si>
+    <t>CIQ,:problem 48</t>
   </si>
   <si>
     <t xml:space="preserve">Give an algorithm for couting the number of BSTs possible with n nodes. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ,Problem 49</t>
+    <t>CIQ,Problem 49</t>
   </si>
   <si>
     <t xml:space="preserve">Give an algorithm for checking whether the given biary tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Correting the above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">improving the complexity</t>
+    <t>Correting the above</t>
+  </si>
+  <si>
+    <t>improving the complexity</t>
   </si>
   <si>
     <t xml:space="preserve">improving further </t>
   </si>
   <si>
-    <t xml:space="preserve">Give an algorithm for converting BST to circular DLL with space complexity O(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,problem 54</t>
+    <t>Give an algorithm for converting BST to circular DLL with space complexity O(1)</t>
+  </si>
+  <si>
+    <t>CIQ,problem 54</t>
   </si>
   <si>
     <t xml:space="preserve">Given a sorted doubly linked list, give an algorithm for converting it into balanced binary search tree. </t>
   </si>
   <si>
-    <t xml:space="preserve">Given a sorted array give an algorithm for converting the array to BST ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a singly linked list where elements are sorted in ascending order , convert it to a height balanced BST.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ,Problem 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexity and improvement to above one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Root to leaf path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/number-of-root-to-leaf-paths/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree/NumberOfRootToLeafPaths.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Corresponding Node of a Binary Tree in a Clone of That Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tree/FindACorrespondingNodeOfABinaryTreeInACloneOfThatTree.java</t>
+    <t>Given a sorted array give an algorithm for converting the array to BST ,</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 56</t>
+  </si>
+  <si>
+    <t>Given a singly linked list where elements are sorted in ascending order , convert it to a height balanced BST.</t>
+  </si>
+  <si>
+    <t>CIQ,Problem 57</t>
+  </si>
+  <si>
+    <t>Complexity and improvement to above one</t>
+  </si>
+  <si>
+    <t>Number of Root to leaf path</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/number-of-root-to-leaf-paths/1</t>
+  </si>
+  <si>
+    <t>tree/NumberOfRootToLeafPaths.java</t>
+  </si>
+  <si>
+    <t>Find a Corresponding Node of a Binary Tree in a Clone of That Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree/</t>
+  </si>
+  <si>
+    <t>tree/FindACorrespondingNodeOfABinaryTreeInACloneOfThatTree.java</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me when you reach here </t>
@@ -1096,292 +1100,282 @@
     <t xml:space="preserve">What are the minimum and maximum number of elements in a heap of height h? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 1</t>
+    <t>CIQ: problem 1</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a min-heap with seven distinct elements so that the preorder traversal of it gives the elements in sorted order ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 2</t>
+    <t>CIQ: problem 2</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a max-heap with seven distinct elements so that the preorder traversal of it gives the elements in sorted order ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 3</t>
+    <t>CIQ: problem 3</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a min-heap and a max-heap with seven distinct elements so that the inorder traversal of it gives the elements in sorted order ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 4</t>
+    <t>CIQ: problem 4</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a in-heap/max-heap with seven distinct elements tso that the postorder traversal of it gives the elements in sorted order ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 5</t>
+    <t>CIQ: problem 5</t>
   </si>
   <si>
     <t xml:space="preserve">Show that the height of a heap with n elements is logn ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a min-heap , give an algorithm for fiding the maximum element ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 7</t>
+    <t>CIQ: problem 6</t>
+  </si>
+  <si>
+    <t>Given a min-heap , give an algorithm for fiding the maximum element ?</t>
+  </si>
+  <si>
+    <t>CIQ: problem 7</t>
   </si>
   <si>
     <t xml:space="preserve">Delete a given element from a min heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 8</t>
+    <t>CIQ: problem 8</t>
   </si>
   <si>
     <t xml:space="preserve">Algo for deleting the ith index in a min heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prove that , for a complete binary tree of height h the sum of the heiht of all odes is O(n-h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 10</t>
+    <t>CIQ: problem 9</t>
+  </si>
+  <si>
+    <t>Prove that , for a complete binary tree of height h the sum of the heiht of all odes is O(n-h)</t>
+  </si>
+  <si>
+    <t>CIQ: problem 10</t>
   </si>
   <si>
     <t xml:space="preserve">merge two max heaps ,of size m+n and the size of other is n . </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve the complexity of the above one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is there an efficient alrogithm for merging 2 max=heaps( sorted as an array ) , assume both arrays have n elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 14</t>
+    <t>CIQ: problem 12</t>
+  </si>
+  <si>
+    <t>Improve the complexity of the above one.</t>
+  </si>
+  <si>
+    <t>CIQ: problem 13</t>
+  </si>
+  <si>
+    <t>Is there an efficient alrogithm for merging 2 max=heaps( sorted as an array ) , assume both arrays have n elements</t>
+  </si>
+  <si>
+    <t>CIQ: problem 14</t>
   </si>
   <si>
     <t xml:space="preserve">Finding kth smallest element in the min-heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 15</t>
+    <t>CIQ: problem 15</t>
   </si>
   <si>
     <t xml:space="preserve">Can you improve rpobelm 15 </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 16</t>
+    <t>CIQ: problem 16</t>
   </si>
   <si>
     <t xml:space="preserve">Find k max elements from max heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 17</t>
+    <t>CIQ: problem 17</t>
   </si>
   <si>
     <t xml:space="preserve">Can we imporve it </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 18</t>
+    <t>CIQ: problem 18</t>
   </si>
   <si>
     <t xml:space="preserve">How do you implement stack using heap  ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 19</t>
+    <t>CIQ: problem 19</t>
   </si>
   <si>
     <t xml:space="preserve">How do you implement a queue using heap  ? </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 20</t>
+    <t>CIQ: problem 20</t>
   </si>
   <si>
     <t xml:space="preserve">Merge k sorted lists with total of n elements </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">improve 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 23</t>
+    <t>CIQ: problem 21</t>
+  </si>
+  <si>
+    <t>Improve 22</t>
+  </si>
+  <si>
+    <t>CIQ: problem 22</t>
+  </si>
+  <si>
+    <t>improve 23</t>
+  </si>
+  <si>
+    <t>CIQ: problem 23</t>
   </si>
   <si>
     <t xml:space="preserve">Given two arrays find the largest n pairs. </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 24</t>
+    <t>CIQ: problem 24</t>
   </si>
   <si>
     <t xml:space="preserve">Design a min-max heap which supports both the min and max heap </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 25</t>
+    <t>CIQ: problem 25</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic median finding. Design a heap data structure that spports fiding median </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 26</t>
+    <t>CIQ: problem 26</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum sum in sliding window </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">improve 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 29</t>
+    <t>CIQ: problem 27</t>
+  </si>
+  <si>
+    <t>Improve 28</t>
+  </si>
+  <si>
+    <t>CIQ: problem 28</t>
+  </si>
+  <si>
+    <t>improve 29</t>
+  </si>
+  <si>
+    <t>CIQ: problem 29</t>
   </si>
   <si>
     <t xml:space="preserve">Designa priority queue where a middle prioroty is withdrawn first </t>
   </si>
   <si>
-    <t xml:space="preserve">CIQ: problem 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given two heaps , how to dyou union them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIQ: problem 31</t>
+    <t>CIQ: problem 30</t>
+  </si>
+  <si>
+    <t>Given two heaps , how to dyou union them</t>
+  </si>
+  <si>
+    <t>CIQ: problem 31</t>
   </si>
   <si>
     <t xml:space="preserve">Median of infinite series of itegers </t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t>c</t>
   </si>
   <si>
     <t xml:space="preserve">Implement a stack using linked list, push, pop, </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement a stack using Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you implement with generics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me when you reach here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find All Numbers Disappeared in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy,Tricky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array/FindAllNumbersDisapearedInAnArray.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equal Sides Of An Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codewars.com/kata/5679aa472b8f57fb8c000047/solutions/java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LuckyNumberInMatrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/lucky-numbers-in-a-matrix/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/average-salary-excluding-the-minimum-and-maximum-salary/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Bloom Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design All in One data strcuture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutations of a given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutations of letter in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutations of a given LinkedLIst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letter Combinations of a Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backtracking to find all subsets</t>
+    <t>Implement a stack using Array</t>
+  </si>
+  <si>
+    <t>Can you implement with generics</t>
+  </si>
+  <si>
+    <t>Tell me when you reach here</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Easy,Tricky</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/</t>
+  </si>
+  <si>
+    <t>array/FindAllNumbersDisapearedInAnArray.java</t>
+  </si>
+  <si>
+    <t>Equal Sides Of An Array</t>
+  </si>
+  <si>
+    <t>codewars.com/kata/5679aa472b8f57fb8c000047/solutions/java</t>
+  </si>
+  <si>
+    <t>LuckyNumberInMatrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lucky-numbers-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/average-salary-excluding-the-minimum-and-maximum-salary/</t>
+  </si>
+  <si>
+    <t>Design Bloom Filter</t>
+  </si>
+  <si>
+    <t>Design All in One data strcuture</t>
+  </si>
+  <si>
+    <t>Permutations of a given string</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0</t>
+  </si>
+  <si>
+    <t>Permutations of letter in an array</t>
+  </si>
+  <si>
+    <t>Permutations of a given LinkedLIst</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>Backtracking to find all subsets</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me when you are here </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate all possible alternating binary string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find out how many alternating 1 in a binary string </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7mhvA5L7KqY at around 17:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy\ hh:mm"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ hh:mm"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1391,7 +1385,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -1402,15 +1396,13 @@
       <sz val="13"/>
       <color rgb="FF99A8BA"/>
       <name val="JetBrains Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="13"/>
       <color rgb="FF518843"/>
       <name val="JetBrains Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1421,7 +1413,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1436,7 +1428,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="9"/>
       <color rgb="FF629755"/>
       <name val="Menlo"/>
@@ -1458,18 +1450,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="13"/>
       <color rgb="FF518843"/>
       <name val="JetBrains Mono"/>
-      <family val="0"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="13"/>
       <color rgb="FF66AC54"/>
       <name val="JetBrains Mono"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="28"/>
@@ -1500,186 +1490,108 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1738,32 +1650,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF212121"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView topLeftCell="D28" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="110.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.67"/>
+    <col min="1" max="1" width="56.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="110.5" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,146 +1997,146 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="4">
         <v>44025</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="29.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" ht="36">
       <c r="A40" s="5" t="s">
         <v>26</v>
       </c>
@@ -1926,49 +2146,41 @@
       <c r="C40" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="8" t="n">
+      <c r="E40" s="8">
         <v>44026</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="file://localhost/Users/ab670958/Documents/ FORM12BB.pdf"/>
-    <hyperlink ref="A39" r:id="rId2" display="Merge Sorted Array"/>
-    <hyperlink ref="C39" r:id="rId3" display="https://leetcode.com/problems/merge-sorted-array/"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A39" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.67"/>
+    <col min="1" max="1" width="115.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -1982,276 +2194,268 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>294</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>308</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>310</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>312</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>314</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>316</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>318</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>320</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>324</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>326</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>328</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>330</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>332</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>334</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>336</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>338</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>340</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>342</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>344</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>346</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>348</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>350</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>352</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2266,36 +2470,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="123.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43"/>
+    <col min="1" max="1" width="123.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2309,42 +2505,34 @@
         <v>355</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.5"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2358,42 +2546,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.82"/>
+    <col min="1" max="1" width="66.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2407,41 +2585,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
         <v>293</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A300" activeCellId="0" sqref="A300"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.82"/>
+    <col min="1" max="1" width="95.5" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2455,60 +2625,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.16"/>
+    <col min="1" max="1" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2523,33 +2683,25 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2564,36 +2716,28 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="111.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.67"/>
+    <col min="1" max="1" width="54.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="111.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>355</v>
       </c>
@@ -2607,11 +2751,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>361</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2621,121 +2765,105 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" ht="17">
       <c r="A17" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>361</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="8">
         <v>44027</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:5" ht="17">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="E18" s="26" t="n">
+      <c r="E18" s="26">
         <v>44027</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="0" t="s">
+    <row r="500" spans="2:2">
+      <c r="B500" t="s">
         <v>293</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/"/>
-    <hyperlink ref="D2" r:id="rId3" display="array/FindAllNumbersDisapearedInAnArray.java"/>
-    <hyperlink ref="C18" r:id="rId4" display="https://leetcode.com/problems/average-salary-excluding-the-minimum-and-maximum-salary/"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.5"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A200" activeCellId="0" sqref="A200"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.16"/>
+    <col min="1" max="1" width="58.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2749,94 +2877,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.67"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2850,34 +2960,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="20">
       <c r="A4" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="20">
       <c r="A5" s="24" t="s">
         <v>375</v>
       </c>
@@ -2885,50 +2995,47 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="35">
       <c r="A6" s="27" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="7" spans="1:4" ht="20">
+      <c r="A7" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>378</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string/0"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="101.2"/>
+    <col min="1" max="1" width="73.83203125" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="22">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,101 +3048,102 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="90">
       <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8">
         <v>44025</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="68">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="8">
         <v>44025</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>44027</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" display=" https://leetcode.com/problems/range-sum-query-2d-immutable/"/>
-    <hyperlink ref="C15" r:id="rId2" display="https://leetcode.com/problems/range-sum-query-immutable/"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{5FD9BC0E-BE65-8A41-B7A0-ADFF58A3F73E}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.67"/>
+    <col min="1" max="1" width="63.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -3049,48 +3157,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.81"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -3104,11 +3204,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -3117,49 +3217,41 @@
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="hash/GroupAnagrams.java"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.33"/>
+    <col min="1" max="1" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -3176,241 +3268,241 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:5">
       <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:5">
       <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:5">
       <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:5">
       <c r="C21" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:5">
       <c r="C22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:5">
       <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:5">
       <c r="C24" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:5">
       <c r="C25" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:5">
       <c r="C26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:5">
       <c r="C27" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:5">
       <c r="C28" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:5">
       <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:5">
       <c r="C30" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:5">
       <c r="C31" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:5">
       <c r="C32" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6">
       <c r="C33" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6">
       <c r="C34" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6">
       <c r="C35" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="187" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:6" ht="187">
+      <c r="B37" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -3420,21 +3512,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6">
       <c r="C38" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="16" t="s">
@@ -3444,11 +3536,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3458,104 +3550,96 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6">
       <c r="C43" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" ht="17">
       <c r="A48" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="8" t="n">
+      <c r="F48" s="8">
         <v>44027</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="0" t="s">
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://codingbat.com/prob/p171896"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://codingbat.com/prob/p184030"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://codingbat.com/prob/p172267"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://codingbat.com/prob/p143825"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://codingbat.com/prob/p162477"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://codingbat.com/prob/p103895"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://codingbat.com/prob/p115863"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://codingbat.com/prob/p199216"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://codingbat.com/prob/p138183"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://codingbat.com/prob/p172063"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://codingbat.com/prob/p161056"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://codingbat.com/prob/p147483"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://codingbat.com/prob/p108853"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://codingbat.com/prob/p163411"/>
-    <hyperlink ref="C16" r:id="rId15" display="https://codingbat.com/prob/p130896"/>
-    <hyperlink ref="C17" r:id="rId16" display="https://codingbat.com/prob/p168564"/>
-    <hyperlink ref="C18" r:id="rId17" display="https://codingbat.com/prob/p197720"/>
-    <hyperlink ref="C19" r:id="rId18" display="https://codingbat.com/prob/p130781"/>
-    <hyperlink ref="C20" r:id="rId19" display="https://codingbat.com/prob/p137729"/>
-    <hyperlink ref="C21" r:id="rId20" display="https://codingbat.com/prob/p174148"/>
-    <hyperlink ref="C22" r:id="rId21" display="https://codingbat.com/prob/p174254"/>
-    <hyperlink ref="C23" r:id="rId22" display="https://codingbat.com/prob/p144623"/>
-    <hyperlink ref="C24" r:id="rId23" display="https://codingbat.com/prob/p139075"/>
-    <hyperlink ref="C25" r:id="rId24" display="https://codingbat.com/prob/p139076"/>
-    <hyperlink ref="C26" r:id="rId25" display="https://codingbat.com/prob/p132118"/>
-    <hyperlink ref="C27" r:id="rId26" display="https://codingbat.com/prob/p194786"/>
-    <hyperlink ref="C28" r:id="rId27" display="https://codingbat.com/prob/p196652"/>
-    <hyperlink ref="C29" r:id="rId28" display="https://codingbat.com/prob/p142247"/>
-    <hyperlink ref="C30" r:id="rId29" display="https://codingbat.com/prob/p151940"/>
-    <hyperlink ref="C31" r:id="rId30" display="https://codingbat.com/prob/p105745"/>
-    <hyperlink ref="C32" r:id="rId31" display="https://codingbat.com/prob/p105745"/>
-    <hyperlink ref="C33" r:id="rId32" display="https://codingbat.com/prob/p110141"/>
-    <hyperlink ref="C34" r:id="rId33" display="https://codingbat.com/prob/p151359"/>
-    <hyperlink ref="C35" r:id="rId34" display="https://codingbat.com/prob/p141494"/>
-    <hyperlink ref="C37" r:id="rId35" display="https://codingbat.com/prob/p141736"/>
-    <hyperlink ref="C38" r:id="rId36" display="https://codingbat.com/prob/p197890"/>
-    <hyperlink ref="D40" r:id="rId37" display="strings/Binaries.java"/>
-    <hyperlink ref="C41" r:id="rId38" display="https://www.codewars.com/kata/5375f921003bf62192000746/train/java"/>
-    <hyperlink ref="D41" r:id="rId39" display="strings/Abbriviation.java"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="D40" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="C41" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="85.33"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="8" max="8" width="85.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="22">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -3578,107 +3662,107 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" ht="51">
+      <c r="A6" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" ht="51">
+      <c r="A7" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478433</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="E7" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51">
+      <c r="A8" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478436</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="E8" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51">
+      <c r="A9" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478438</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="E9" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51">
+      <c r="A10" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478438</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="E10" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:7" ht="51">
+      <c r="A12" t="s">
         <v>117</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.375747844</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="E12" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51">
+      <c r="A13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="21" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478441</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="E13" s="21">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3686,63 +3770,63 @@
       </c>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:7" ht="51">
+      <c r="A15" t="s">
         <v>123</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478442</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="E15" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="51">
+      <c r="A16" t="s">
         <v>125</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:8" ht="51">
+      <c r="A17" t="s">
         <v>126</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:8" ht="34">
+      <c r="A18" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478443</v>
-      </c>
-      <c r="H18" s="0" t="s">
+      <c r="E18" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+      <c r="H18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:8" ht="34">
+      <c r="A19" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478444</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="E19" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51">
+      <c r="A20" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -3750,78 +3834,78 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:8" ht="51">
+      <c r="A21" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478446</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="E21" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51">
+      <c r="A22" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="20" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478446</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="E22" s="20">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:8" ht="34">
+      <c r="A26" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="22" t="n">
-        <f aca="true">NOW()</f>
-        <v>44027.3757478448</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="E26" s="22">
+        <f ca="1">NOW()</f>
+        <v>44050.744046990738</v>
+      </c>
+      <c r="H26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="51">
       <c r="A36" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="21" t="n">
+      <c r="E36" s="21">
         <v>44022</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" ht="34">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="21" t="n">
+      <c r="E37" s="21">
         <v>44022</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" ht="34">
       <c r="A38" s="3" t="s">
         <v>144</v>
       </c>
@@ -3829,7 +3913,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" ht="34">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -3837,7 +3921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" ht="34">
       <c r="A40" s="3" t="s">
         <v>148</v>
       </c>
@@ -3845,7 +3929,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="34">
       <c r="A41" s="3" t="s">
         <v>150</v>
       </c>
@@ -3853,7 +3937,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" ht="34">
       <c r="A42" s="3" t="s">
         <v>152</v>
       </c>
@@ -3861,7 +3945,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" ht="34">
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
@@ -3869,7 +3953,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" ht="34">
       <c r="A44" s="3" t="s">
         <v>156</v>
       </c>
@@ -3877,7 +3961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" ht="34">
       <c r="A45" s="3" t="s">
         <v>158</v>
       </c>
@@ -3885,82 +3969,74 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1"/>
-    <hyperlink ref="C7" r:id="rId2" display="https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1"/>
-    <hyperlink ref="C8" r:id="rId3" display="https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1"/>
-    <hyperlink ref="C9" r:id="rId4" display="https://practice.geeksforgeeks.org/problems/print-linked-list-elements/1"/>
-    <hyperlink ref="C10" r:id="rId5" display="https://practice.geeksforgeeks.org/problems/node-at-a-given-index-in-linked-list/1"/>
-    <hyperlink ref="C12" r:id="rId6" display="https://practice.geeksforgeeks.org/problems/linked-list-insertion-1587115620/1"/>
-    <hyperlink ref="C13" r:id="rId7" display="https://practice.geeksforgeeks.org/problems/count-nodes-of-linked-list/1"/>
-    <hyperlink ref="C14" r:id="rId8" display="https://practice.geeksforgeeks.org/problems/count-nodes-of-linked-list/1"/>
-    <hyperlink ref="C15" r:id="rId9" display="https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1"/>
-    <hyperlink ref="C16" r:id="rId10" display="https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1"/>
-    <hyperlink ref="C17" r:id="rId11" display="https://practice.geeksforgeeks.org/problems/linked-list-length-even-or-odd/1"/>
-    <hyperlink ref="C18" r:id="rId12" display="https://practice.geeksforgeeks.org/problems/identical-linked-lists/1"/>
-    <hyperlink ref="C19" r:id="rId13" display="https://practice.geeksforgeeks.org/problems/identical-linked-lists/1"/>
-    <hyperlink ref="C20" r:id="rId14" display="https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1"/>
-    <hyperlink ref="C21" r:id="rId15" display="https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1"/>
-    <hyperlink ref="C22" r:id="rId16" display="https://practice.geeksforgeeks.org/problems/find-the-sum-of-last-n-nodes-of-the-linked-list/1"/>
-    <hyperlink ref="C26" r:id="rId17" display="https://practice.geeksforgeeks.org/problems/circular-linked-list/1"/>
-    <hyperlink ref="A36" r:id="rId18" display="Convert Binary Number in a Linked List to Integer    "/>
-    <hyperlink ref="C36" r:id="rId19" display="https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer/"/>
-    <hyperlink ref="A37" r:id="rId20" display="Delete Node in a Linked List    "/>
-    <hyperlink ref="C37" r:id="rId21" display="https://leetcode.com/problems/delete-node-in-a-linked-list/"/>
-    <hyperlink ref="A38" r:id="rId22" display="Middle of the Linked List    "/>
-    <hyperlink ref="C38" r:id="rId23" display="https://leetcode.com/problems/middle-of-the-linked-list/"/>
-    <hyperlink ref="A39" r:id="rId24" display="Reverse Linked List    "/>
-    <hyperlink ref="C39" r:id="rId25" display="https://leetcode.com/problems/reverse-linked-list/"/>
-    <hyperlink ref="A40" r:id="rId26" display="Merge Two Sorted Lists    "/>
-    <hyperlink ref="C40" r:id="rId27" display="https://leetcode.com/problems/merge-two-sorted-lists/"/>
-    <hyperlink ref="A41" r:id="rId28" display="Remove Duplicates from Sorted List    "/>
-    <hyperlink ref="C41" r:id="rId29" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/"/>
-    <hyperlink ref="A42" r:id="rId30" display="Linked List Cycle    "/>
-    <hyperlink ref="C42" r:id="rId31" display="https://leetcode.com/problems/linked-list-cycle/"/>
-    <hyperlink ref="A43" r:id="rId32" display="Intersection of Two Linked Lists    "/>
-    <hyperlink ref="C43" r:id="rId33" display="https://leetcode.com/problems/intersection-of-two-linked-lists/"/>
-    <hyperlink ref="A44" r:id="rId34" display="Palindrome Linked List    "/>
-    <hyperlink ref="C44" r:id="rId35" display="https://leetcode.com/problems/palindrome-linked-list/"/>
-    <hyperlink ref="A45" r:id="rId36" display="Remove Linked List Elements    "/>
-    <hyperlink ref="C45" r:id="rId37" display="https://leetcode.com/problems/remove-linked-list-elements/"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="C26" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="A36" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="C36" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="A37" r:id="rId20" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="C37" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="A38" r:id="rId22" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="C38" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="A39" r:id="rId24" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="C39" r:id="rId25" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="A40" r:id="rId26" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
+    <hyperlink ref="C40" r:id="rId27" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
+    <hyperlink ref="A41" r:id="rId28" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
+    <hyperlink ref="C41" r:id="rId29" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
+    <hyperlink ref="A42" r:id="rId30" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
+    <hyperlink ref="C42" r:id="rId31" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
+    <hyperlink ref="A43" r:id="rId32" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
+    <hyperlink ref="C43" r:id="rId33" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
+    <hyperlink ref="A44" r:id="rId34" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
+    <hyperlink ref="C44" r:id="rId35" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
+    <hyperlink ref="A45" r:id="rId36" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
+    <hyperlink ref="C45" r:id="rId37" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A398" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView topLeftCell="A398" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="108"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="74.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.5"/>
+    <col min="1" max="1" width="108" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="74.83203125" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -3974,561 +4050,561 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>177</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>199</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>203</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>205</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>206</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>208</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>210</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>213</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>215</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>217</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>219</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>221</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>229</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>230</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>232</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>236</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>238</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>240</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>242</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>246</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>248</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>252</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>254</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>258</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>260</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>263</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>265</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>269</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>271</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>273</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>279</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
         <v>282</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -4538,11 +4614,11 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>290</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>48</v>
       </c>
       <c r="C83" s="23" t="s">
@@ -4552,51 +4628,43 @@
         <v>292</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
         <v>293</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://www.codewars.com/kata/57e5279b7cf1aea5cf000359"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://www.codewars.com/kata/57e5279b7cf1aea5cf000359"/>
-    <hyperlink ref="C10" r:id="rId3" display="https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1"/>
-    <hyperlink ref="C11" r:id="rId4" display="https://practice.geeksforgeeks.org/problems/size-of-binary-tree/1"/>
-    <hyperlink ref="C82" r:id="rId5" display="https://practice.geeksforgeeks.org/problems/number-of-root-to-leaf-paths/1"/>
-    <hyperlink ref="D82" r:id="rId6" display="tree/NumberOfRootToLeafPaths.java"/>
-    <hyperlink ref="D83" r:id="rId7" display="tree/FindACorrespondingNodeOfABinaryTreeInACloneOfThatTree.java"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="C82" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="D82" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="D83" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A100" activeCellId="0" sqref="A100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.67"/>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -4610,18 +4678,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>